--- a/Richmond_stats.xlsx
+++ b/Richmond_stats.xlsx
@@ -13096,7 +13096,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -17555,7 +17555,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -18192,7 +18192,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -18829,7 +18829,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -30295,7 +30295,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -32206,7 +32206,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -32843,7 +32843,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -34754,7 +34754,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -36028,7 +36028,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Kicks (every)</t>
+          <t>Kicks (O)</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -36665,7 +36665,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Handballs (row)</t>
+          <t>Handballs (O)</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -37302,7 +37302,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Disposals (from)</t>
+          <t>Disposals (O)</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -37939,7 +37939,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kick to HB Ratio (kicks)</t>
+          <t>Kick to HB Ratio (O)</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -38576,7 +38576,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Marks (below)</t>
+          <t>Marks (O)</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -39213,7 +39213,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Tackles(is against)</t>
+          <t>Tackles(O)</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -39850,7 +39850,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Hitouts</t>
+          <t>Hitouts(O)</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -40487,7 +40487,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Frees For</t>
+          <t>Frees For(O)</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -41124,7 +41124,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Frees Against</t>
+          <t>Frees Against(O)</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -41761,7 +41761,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Goals Kicked</t>
+          <t>Goals Kicked(O)</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -42398,7 +42398,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1(O)</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -43035,7 +43035,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Behinds Kicked</t>
+          <t>Behinds Kicked(O)</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -43672,7 +43672,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Rushed Behinds</t>
+          <t>Rushed Behinds(O)</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -44309,7 +44309,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Scoring Shots</t>
+          <t>Scoring Shots(O)</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -44946,7 +44946,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Conversion %</t>
+          <t>Conversion %(O)</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -45583,7 +45583,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Disposals Per Goal</t>
+          <t>Disposals Per Goal(O)</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -46220,7 +46220,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Disposals Per Scoring Shot</t>
+          <t>Disposals Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -46857,7 +46857,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1(O)</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -47494,7 +47494,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1(O)</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -48131,7 +48131,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1(O)</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -48768,7 +48768,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Inside 50s</t>
+          <t>Inside 50s(O)</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -49405,7 +49405,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>In50s Per Scoring Shot</t>
+          <t>In50s Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -50042,7 +50042,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>In50s Per Goal</t>
+          <t>In50s Per Goal(O)</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -50679,7 +50679,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>% In50s Score</t>
+          <t>% In50s Score(O)</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -51316,7 +51316,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>% In50s Goal</t>
+          <t>% In50s Goal(O)</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -51953,7 +51953,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Height(O)</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -52590,7 +52590,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Weight(O)</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -53227,7 +53227,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Age(O)</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -53864,7 +53864,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Av Games</t>
+          <t>Av Games(O)</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -54501,7 +54501,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>&lt;50 Games</t>
+          <t>&lt;50 Games(O)</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -55138,7 +55138,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>50-99 Games</t>
+          <t>50-99 Games(O)</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -55775,7 +55775,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>100-149 Games</t>
+          <t>100-149 Games(O)</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -56412,7 +56412,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>&gt;150 Games</t>
+          <t>&gt;150 Games(O)</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -57049,7 +57049,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Contested Poss</t>
+          <t>Contested Poss(O)</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -57686,7 +57686,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Uncontested Poss</t>
+          <t>Uncontested Poss(O)</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -58323,7 +58323,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Effective Disposals</t>
+          <t>Effective Disposals(O)</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -58960,7 +58960,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Disposal Efficiency</t>
+          <t>Disposal Efficiency(O)</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -59597,7 +59597,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2(O)</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -60234,7 +60234,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Contested Marks</t>
+          <t>Contested Marks(O)</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -60871,7 +60871,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Marks Inside 50</t>
+          <t>Marks Inside 50(O)</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -61508,7 +61508,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2(O)</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -62145,7 +62145,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2(O)</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -62782,7 +62782,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1%ers</t>
+          <t>1%ers(O)</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -63419,7 +63419,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Bounces</t>
+          <t>Bounces(O)</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -64056,7 +64056,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2(O)</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -64693,7 +64693,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Goal Assist %</t>
+          <t>Goal Assist %(O)</t>
         </is>
       </c>
       <c r="B102" t="n">

--- a/Richmond_stats.xlsx
+++ b/Richmond_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC102"/>
+  <dimension ref="A1:HE102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -989,6 +989,12 @@
       <c r="HC1" t="n">
         <v>9928</v>
       </c>
+      <c r="HD1" t="n">
+        <v>10126</v>
+      </c>
+      <c r="HE1" t="n">
+        <v>10135</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1626,6 +1632,12 @@
       <c r="HC2" t="n">
         <v>2020</v>
       </c>
+      <c r="HD2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2263,6 +2275,12 @@
       <c r="HC3" t="n">
         <v>1</v>
       </c>
+      <c r="HD3" t="n">
+        <v>2</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2900,6 +2918,12 @@
       <c r="HC4" t="n">
         <v>0</v>
       </c>
+      <c r="HD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3537,6 +3561,12 @@
       <c r="HC5" t="n">
         <v>0</v>
       </c>
+      <c r="HD5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="HE5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4174,6 +4204,12 @@
       <c r="HC6" t="n">
         <v>105</v>
       </c>
+      <c r="HD6" t="n">
+        <v>36</v>
+      </c>
+      <c r="HE6" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4811,6 +4847,12 @@
       <c r="HC7" t="n">
         <v>81</v>
       </c>
+      <c r="HD7" t="n">
+        <v>36</v>
+      </c>
+      <c r="HE7" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5448,6 +5490,12 @@
       <c r="HC8" t="n">
         <v>24</v>
       </c>
+      <c r="HD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE8" t="n">
+        <v>-32</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6085,6 +6133,12 @@
       <c r="HC9" t="n">
         <v>1</v>
       </c>
+      <c r="HD9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="HE9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6722,6 +6776,12 @@
       <c r="HC10" t="n">
         <v>3</v>
       </c>
+      <c r="HD10" t="n">
+        <v>4</v>
+      </c>
+      <c r="HE10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7359,6 +7419,12 @@
       <c r="HC11" t="n">
         <v>155</v>
       </c>
+      <c r="HD11" t="n">
+        <v>177</v>
+      </c>
+      <c r="HE11" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7996,6 +8062,12 @@
       <c r="HC12" t="n">
         <v>122</v>
       </c>
+      <c r="HD12" t="n">
+        <v>104</v>
+      </c>
+      <c r="HE12" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8633,6 +8705,12 @@
       <c r="HC13" t="n">
         <v>277</v>
       </c>
+      <c r="HD13" t="n">
+        <v>281</v>
+      </c>
+      <c r="HE13" t="n">
+        <v>297</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9270,6 +9348,12 @@
       <c r="HC14" t="n">
         <v>1.27</v>
       </c>
+      <c r="HD14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="HE14" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9907,6 +9991,12 @@
       <c r="HC15" t="n">
         <v>57</v>
       </c>
+      <c r="HD15" t="n">
+        <v>74</v>
+      </c>
+      <c r="HE15" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10544,6 +10634,12 @@
       <c r="HC16" t="n">
         <v>52</v>
       </c>
+      <c r="HD16" t="n">
+        <v>70</v>
+      </c>
+      <c r="HE16" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11181,6 +11277,12 @@
       <c r="HC17" t="n">
         <v>41</v>
       </c>
+      <c r="HD17" t="n">
+        <v>24</v>
+      </c>
+      <c r="HE17" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11818,6 +11920,12 @@
       <c r="HC18" t="n">
         <v>18</v>
       </c>
+      <c r="HD18" t="n">
+        <v>15</v>
+      </c>
+      <c r="HE18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12455,6 +12563,12 @@
       <c r="HC19" t="n">
         <v>24</v>
       </c>
+      <c r="HD19" t="n">
+        <v>14</v>
+      </c>
+      <c r="HE19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13092,6 +13206,12 @@
       <c r="HC20" t="n">
         <v>16</v>
       </c>
+      <c r="HD20" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE20" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13729,6 +13849,12 @@
       <c r="HC21" t="n">
         <v>12</v>
       </c>
+      <c r="HD21" t="n">
+        <v>3</v>
+      </c>
+      <c r="HE21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14366,6 +14492,12 @@
       <c r="HC22" t="n">
         <v>8</v>
       </c>
+      <c r="HD22" t="n">
+        <v>2</v>
+      </c>
+      <c r="HE22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15003,6 +15135,12 @@
       <c r="HC23" t="n">
         <v>1</v>
       </c>
+      <c r="HD23" t="n">
+        <v>4</v>
+      </c>
+      <c r="HE23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15640,6 +15778,12 @@
       <c r="HC24" t="n">
         <v>25</v>
       </c>
+      <c r="HD24" t="n">
+        <v>11</v>
+      </c>
+      <c r="HE24" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16277,6 +16421,12 @@
       <c r="HC25" t="n">
         <v>64</v>
       </c>
+      <c r="HD25" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="HE25" t="n">
+        <v>35.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16914,6 +17064,12 @@
       <c r="HC26" t="n">
         <v>17.31</v>
       </c>
+      <c r="HD26" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="HE26" t="n">
+        <v>59.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17551,6 +17707,12 @@
       <c r="HC27" t="n">
         <v>11.08</v>
       </c>
+      <c r="HD27" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="HE27" t="n">
+        <v>21.21</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18188,6 +18350,12 @@
       <c r="HC28" t="n">
         <v>30</v>
       </c>
+      <c r="HD28" t="n">
+        <v>32</v>
+      </c>
+      <c r="HE28" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18825,6 +18993,12 @@
       <c r="HC29" t="n">
         <v>50</v>
       </c>
+      <c r="HD29" t="n">
+        <v>44</v>
+      </c>
+      <c r="HE29" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19462,6 +19636,12 @@
       <c r="HC30" t="n">
         <v>41</v>
       </c>
+      <c r="HD30" t="n">
+        <v>26</v>
+      </c>
+      <c r="HE30" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20099,6 +20279,12 @@
       <c r="HC31" t="n">
         <v>48</v>
       </c>
+      <c r="HD31" t="n">
+        <v>44</v>
+      </c>
+      <c r="HE31" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20736,6 +20922,12 @@
       <c r="HC32" t="n">
         <v>1.92</v>
       </c>
+      <c r="HD32" t="n">
+        <v>4</v>
+      </c>
+      <c r="HE32" t="n">
+        <v>3.07</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21373,6 +21565,12 @@
       <c r="HC33" t="n">
         <v>3</v>
       </c>
+      <c r="HD33" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="HE33" t="n">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22010,6 +22208,12 @@
       <c r="HC34" t="n">
         <v>50</v>
       </c>
+      <c r="HD34" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="HE34" t="n">
+        <v>27.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22647,6 +22851,12 @@
       <c r="HC35" t="n">
         <v>33.3</v>
       </c>
+      <c r="HD35" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="HE35" t="n">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23284,6 +23494,12 @@
       <c r="HC36" t="n">
         <v>185.7</v>
       </c>
+      <c r="HD36" t="n">
+        <v>184.4</v>
+      </c>
+      <c r="HE36" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23921,6 +24137,12 @@
       <c r="HC37" t="n">
         <v>85.8</v>
       </c>
+      <c r="HD37" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="HE37" t="n">
+        <v>84.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24558,6 +24780,12 @@
       <c r="HC38" t="n">
         <v>26.16</v>
       </c>
+      <c r="HD38" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="HE38" t="n">
+        <v>26.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25195,6 +25423,12 @@
       <c r="HC39" t="n">
         <v>111.8</v>
       </c>
+      <c r="HD39" t="n">
+        <v>113.2</v>
+      </c>
+      <c r="HE39" t="n">
+        <v>110.4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25832,6 +26066,12 @@
       <c r="HC40" t="n">
         <v>6</v>
       </c>
+      <c r="HD40" t="n">
+        <v>7</v>
+      </c>
+      <c r="HE40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26469,6 +26709,12 @@
       <c r="HC41" t="n">
         <v>6</v>
       </c>
+      <c r="HD41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27106,6 +27352,12 @@
       <c r="HC42" t="n">
         <v>2</v>
       </c>
+      <c r="HD42" t="n">
+        <v>2</v>
+      </c>
+      <c r="HE42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27743,6 +27995,12 @@
       <c r="HC43" t="n">
         <v>8</v>
       </c>
+      <c r="HD43" t="n">
+        <v>8</v>
+      </c>
+      <c r="HE43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28380,6 +28638,12 @@
       <c r="HC44" t="n">
         <v>109</v>
       </c>
+      <c r="HD44" t="n">
+        <v>119</v>
+      </c>
+      <c r="HE44" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29017,6 +29281,12 @@
       <c r="HC45" t="n">
         <v>164</v>
       </c>
+      <c r="HD45" t="n">
+        <v>163</v>
+      </c>
+      <c r="HE45" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29654,6 +29924,12 @@
       <c r="HC46" t="n">
         <v>222</v>
       </c>
+      <c r="HD46" t="n">
+        <v>189</v>
+      </c>
+      <c r="HE46" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30291,6 +30567,12 @@
       <c r="HC47" t="n">
         <v>80.09999999999999</v>
       </c>
+      <c r="HD47" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="HE47" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30928,6 +31210,12 @@
       <c r="HC48" t="n">
         <v>50</v>
       </c>
+      <c r="HD48" t="n">
+        <v>44</v>
+      </c>
+      <c r="HE48" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31565,6 +31853,12 @@
       <c r="HC49" t="n">
         <v>10</v>
       </c>
+      <c r="HD49" t="n">
+        <v>10</v>
+      </c>
+      <c r="HE49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32202,6 +32496,12 @@
       <c r="HC50" t="n">
         <v>12</v>
       </c>
+      <c r="HD50" t="n">
+        <v>4</v>
+      </c>
+      <c r="HE50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32839,6 +33139,12 @@
       <c r="HC51" t="n">
         <v>30</v>
       </c>
+      <c r="HD51" t="n">
+        <v>32</v>
+      </c>
+      <c r="HE51" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33476,6 +33782,12 @@
       <c r="HC52" t="n">
         <v>41</v>
       </c>
+      <c r="HD52" t="n">
+        <v>26</v>
+      </c>
+      <c r="HE52" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -34113,6 +34425,12 @@
       <c r="HC53" t="n">
         <v>48</v>
       </c>
+      <c r="HD53" t="n">
+        <v>41</v>
+      </c>
+      <c r="HE53" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -34750,6 +35068,12 @@
       <c r="HC54" t="n">
         <v>5</v>
       </c>
+      <c r="HD54" t="n">
+        <v>2</v>
+      </c>
+      <c r="HE54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -35387,6 +35711,12 @@
       <c r="HC55" t="n">
         <v>12</v>
       </c>
+      <c r="HD55" t="n">
+        <v>3</v>
+      </c>
+      <c r="HE55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -36024,6 +36354,12 @@
       <c r="HC56" t="n">
         <v>75</v>
       </c>
+      <c r="HD56" t="n">
+        <v>60</v>
+      </c>
+      <c r="HE56" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -36661,6 +36997,12 @@
       <c r="HC57" t="n">
         <v>188</v>
       </c>
+      <c r="HD57" t="n">
+        <v>186</v>
+      </c>
+      <c r="HE57" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -37298,6 +37640,12 @@
       <c r="HC58" t="n">
         <v>114</v>
       </c>
+      <c r="HD58" t="n">
+        <v>147</v>
+      </c>
+      <c r="HE58" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -37935,6 +38283,12 @@
       <c r="HC59" t="n">
         <v>302</v>
       </c>
+      <c r="HD59" t="n">
+        <v>333</v>
+      </c>
+      <c r="HE59" t="n">
+        <v>318</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -38572,6 +38926,12 @@
       <c r="HC60" t="n">
         <v>1.65</v>
       </c>
+      <c r="HD60" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="HE60" t="n">
+        <v>1.47</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -39209,6 +39569,12 @@
       <c r="HC61" t="n">
         <v>69</v>
       </c>
+      <c r="HD61" t="n">
+        <v>81</v>
+      </c>
+      <c r="HE61" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -39846,6 +40212,12 @@
       <c r="HC62" t="n">
         <v>23</v>
       </c>
+      <c r="HD62" t="n">
+        <v>29</v>
+      </c>
+      <c r="HE62" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -40483,6 +40855,12 @@
       <c r="HC63" t="n">
         <v>26</v>
       </c>
+      <c r="HD63" t="n">
+        <v>37</v>
+      </c>
+      <c r="HE63" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -41120,6 +41498,12 @@
       <c r="HC64" t="n">
         <v>24</v>
       </c>
+      <c r="HD64" t="n">
+        <v>14</v>
+      </c>
+      <c r="HE64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -41757,6 +42141,12 @@
       <c r="HC65" t="n">
         <v>18</v>
       </c>
+      <c r="HD65" t="n">
+        <v>15</v>
+      </c>
+      <c r="HE65" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -42394,6 +42784,12 @@
       <c r="HC66" t="n">
         <v>12</v>
       </c>
+      <c r="HD66" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -43031,6 +43427,12 @@
       <c r="HC67" t="n">
         <v>5</v>
       </c>
+      <c r="HD67" t="n">
+        <v>3</v>
+      </c>
+      <c r="HE67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -43668,6 +44070,12 @@
       <c r="HC68" t="n">
         <v>8</v>
       </c>
+      <c r="HD68" t="n">
+        <v>4</v>
+      </c>
+      <c r="HE68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -44305,6 +44713,12 @@
       <c r="HC69" t="n">
         <v>1</v>
       </c>
+      <c r="HD69" t="n">
+        <v>2</v>
+      </c>
+      <c r="HE69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -44942,6 +45356,12 @@
       <c r="HC70" t="n">
         <v>21</v>
       </c>
+      <c r="HD70" t="n">
+        <v>11</v>
+      </c>
+      <c r="HE70" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -45579,6 +45999,12 @@
       <c r="HC71" t="n">
         <v>57.1</v>
       </c>
+      <c r="HD71" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="HE71" t="n">
+        <v>68.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -46216,6 +46642,12 @@
       <c r="HC72" t="n">
         <v>25.17</v>
       </c>
+      <c r="HD72" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="HE72" t="n">
+        <v>28.91</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -46853,6 +47285,12 @@
       <c r="HC73" t="n">
         <v>14.38</v>
       </c>
+      <c r="HD73" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="HE73" t="n">
+        <v>19.88</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -47490,6 +47928,12 @@
       <c r="HC74" t="n">
         <v>33</v>
       </c>
+      <c r="HD74" t="n">
+        <v>30</v>
+      </c>
+      <c r="HE74" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -48127,6 +48571,12 @@
       <c r="HC75" t="n">
         <v>51</v>
       </c>
+      <c r="HD75" t="n">
+        <v>48</v>
+      </c>
+      <c r="HE75" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -48764,6 +49214,12 @@
       <c r="HC76" t="n">
         <v>29</v>
       </c>
+      <c r="HD76" t="n">
+        <v>38</v>
+      </c>
+      <c r="HE76" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -49401,6 +49857,12 @@
       <c r="HC77" t="n">
         <v>54</v>
       </c>
+      <c r="HD77" t="n">
+        <v>32</v>
+      </c>
+      <c r="HE77" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -50038,6 +50500,12 @@
       <c r="HC78" t="n">
         <v>2.57</v>
       </c>
+      <c r="HD78" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="HE78" t="n">
+        <v>2.19</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -50675,6 +51143,12 @@
       <c r="HC79" t="n">
         <v>4.5</v>
       </c>
+      <c r="HD79" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="HE79" t="n">
+        <v>3.18</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -51312,6 +51786,12 @@
       <c r="HC80" t="n">
         <v>37</v>
       </c>
+      <c r="HD80" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="HE80" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -51949,6 +52429,12 @@
       <c r="HC81" t="n">
         <v>22.2</v>
       </c>
+      <c r="HD81" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="HE81" t="n">
+        <v>31.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -52586,6 +53072,12 @@
       <c r="HC82" t="n">
         <v>188.2</v>
       </c>
+      <c r="HD82" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="HE82" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -53223,6 +53715,12 @@
       <c r="HC83" t="n">
         <v>86.3</v>
       </c>
+      <c r="HD83" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="HE83" t="n">
+        <v>87.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -53860,6 +54358,12 @@
       <c r="HC84" t="n">
         <v>25.8</v>
       </c>
+      <c r="HD84" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="HE84" t="n">
+        <v>27.91</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -54497,6 +55001,12 @@
       <c r="HC85" t="n">
         <v>102.4</v>
       </c>
+      <c r="HD85" t="n">
+        <v>104</v>
+      </c>
+      <c r="HE85" t="n">
+        <v>139.6</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -55134,6 +55644,12 @@
       <c r="HC86" t="n">
         <v>5</v>
       </c>
+      <c r="HD86" t="n">
+        <v>7</v>
+      </c>
+      <c r="HE86" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -55771,6 +56287,12 @@
       <c r="HC87" t="n">
         <v>9</v>
       </c>
+      <c r="HD87" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -56408,6 +56930,12 @@
       <c r="HC88" t="n">
         <v>3</v>
       </c>
+      <c r="HD88" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -57045,6 +57573,12 @@
       <c r="HC89" t="n">
         <v>5</v>
       </c>
+      <c r="HD89" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE89" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -57682,6 +58216,12 @@
       <c r="HC90" t="n">
         <v>126</v>
       </c>
+      <c r="HD90" t="n">
+        <v>129</v>
+      </c>
+      <c r="HE90" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -58319,6 +58859,12 @@
       <c r="HC91" t="n">
         <v>173</v>
       </c>
+      <c r="HD91" t="n">
+        <v>199</v>
+      </c>
+      <c r="HE91" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -58956,6 +59502,12 @@
       <c r="HC92" t="n">
         <v>208</v>
       </c>
+      <c r="HD92" t="n">
+        <v>242</v>
+      </c>
+      <c r="HE92" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -59593,6 +60145,12 @@
       <c r="HC93" t="n">
         <v>68.90000000000001</v>
       </c>
+      <c r="HD93" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="HE93" t="n">
+        <v>76.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -60230,6 +60788,12 @@
       <c r="HC94" t="n">
         <v>51</v>
       </c>
+      <c r="HD94" t="n">
+        <v>48</v>
+      </c>
+      <c r="HE94" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -60867,6 +61431,12 @@
       <c r="HC95" t="n">
         <v>7</v>
       </c>
+      <c r="HD95" t="n">
+        <v>12</v>
+      </c>
+      <c r="HE95" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -61504,6 +62074,12 @@
       <c r="HC96" t="n">
         <v>12</v>
       </c>
+      <c r="HD96" t="n">
+        <v>6</v>
+      </c>
+      <c r="HE96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -62141,6 +62717,12 @@
       <c r="HC97" t="n">
         <v>33</v>
       </c>
+      <c r="HD97" t="n">
+        <v>30</v>
+      </c>
+      <c r="HE97" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -62778,6 +63360,12 @@
       <c r="HC98" t="n">
         <v>29</v>
       </c>
+      <c r="HD98" t="n">
+        <v>38</v>
+      </c>
+      <c r="HE98" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -63415,6 +64003,12 @@
       <c r="HC99" t="n">
         <v>44</v>
       </c>
+      <c r="HD99" t="n">
+        <v>45</v>
+      </c>
+      <c r="HE99" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -64052,6 +64646,12 @@
       <c r="HC100" t="n">
         <v>0</v>
       </c>
+      <c r="HD100" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -64689,6 +65289,12 @@
       <c r="HC101" t="n">
         <v>5</v>
       </c>
+      <c r="HD101" t="n">
+        <v>3</v>
+      </c>
+      <c r="HE101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -65326,8 +65932,14 @@
       <c r="HC102" t="n">
         <v>41.7</v>
       </c>
+      <c r="HD102" t="n">
+        <v>60</v>
+      </c>
+      <c r="HE102" t="n">
+        <v>54.5</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Richmond_stats.xlsx
+++ b/Richmond_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HE102"/>
+  <dimension ref="A1:HF102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -995,6 +995,9 @@
       <c r="HE1" t="n">
         <v>10135</v>
       </c>
+      <c r="HF1" t="n">
+        <v>10147</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1638,6 +1641,9 @@
       <c r="HE2" t="n">
         <v>2020</v>
       </c>
+      <c r="HF2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2281,6 +2287,9 @@
       <c r="HE3" t="n">
         <v>3</v>
       </c>
+      <c r="HF3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2924,6 +2933,9 @@
       <c r="HE4" t="n">
         <v>0</v>
       </c>
+      <c r="HF4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3567,6 +3579,9 @@
       <c r="HE5" t="n">
         <v>1</v>
       </c>
+      <c r="HF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4210,6 +4225,9 @@
       <c r="HE6" t="n">
         <v>39</v>
       </c>
+      <c r="HF6" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4853,6 +4871,9 @@
       <c r="HE7" t="n">
         <v>71</v>
       </c>
+      <c r="HF7" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5496,6 +5517,9 @@
       <c r="HE8" t="n">
         <v>-32</v>
       </c>
+      <c r="HF8" t="n">
+        <v>-26</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6139,6 +6163,9 @@
       <c r="HE9" t="n">
         <v>0</v>
       </c>
+      <c r="HF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6782,6 +6809,9 @@
       <c r="HE10" t="n">
         <v>10</v>
       </c>
+      <c r="HF10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7425,6 +7455,9 @@
       <c r="HE11" t="n">
         <v>171</v>
       </c>
+      <c r="HF11" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8068,6 +8101,9 @@
       <c r="HE12" t="n">
         <v>126</v>
       </c>
+      <c r="HF12" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8711,6 +8747,9 @@
       <c r="HE13" t="n">
         <v>297</v>
       </c>
+      <c r="HF13" t="n">
+        <v>313</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9354,6 +9393,9 @@
       <c r="HE14" t="n">
         <v>1.36</v>
       </c>
+      <c r="HF14" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9997,6 +10039,9 @@
       <c r="HE15" t="n">
         <v>74</v>
       </c>
+      <c r="HF15" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10640,6 +10685,9 @@
       <c r="HE16" t="n">
         <v>27</v>
       </c>
+      <c r="HF16" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11283,6 +11331,9 @@
       <c r="HE17" t="n">
         <v>11</v>
       </c>
+      <c r="HF17" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11926,6 +11977,9 @@
       <c r="HE18" t="n">
         <v>23</v>
       </c>
+      <c r="HF18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12569,6 +12623,9 @@
       <c r="HE19" t="n">
         <v>19</v>
       </c>
+      <c r="HF19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13212,6 +13269,9 @@
       <c r="HE20" t="n">
         <v>5</v>
       </c>
+      <c r="HF20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13855,6 +13915,9 @@
       <c r="HE21" t="n">
         <v>4</v>
       </c>
+      <c r="HF21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14498,6 +14561,9 @@
       <c r="HE22" t="n">
         <v>7</v>
       </c>
+      <c r="HF22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15141,6 +15207,9 @@
       <c r="HE23" t="n">
         <v>2</v>
       </c>
+      <c r="HF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15784,6 +15853,9 @@
       <c r="HE24" t="n">
         <v>14</v>
       </c>
+      <c r="HF24" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16427,6 +16499,9 @@
       <c r="HE25" t="n">
         <v>35.7</v>
       </c>
+      <c r="HF25" t="n">
+        <v>58.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17070,6 +17145,9 @@
       <c r="HE26" t="n">
         <v>59.4</v>
       </c>
+      <c r="HF26" t="n">
+        <v>31.3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17713,6 +17791,9 @@
       <c r="HE27" t="n">
         <v>21.21</v>
       </c>
+      <c r="HF27" t="n">
+        <v>18.41</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18356,6 +18437,9 @@
       <c r="HE28" t="n">
         <v>17</v>
       </c>
+      <c r="HF28" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18999,6 +19083,9 @@
       <c r="HE29" t="n">
         <v>59</v>
       </c>
+      <c r="HF29" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19642,6 +19729,9 @@
       <c r="HE30" t="n">
         <v>24</v>
       </c>
+      <c r="HF30" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20285,6 +20375,9 @@
       <c r="HE31" t="n">
         <v>43</v>
       </c>
+      <c r="HF31" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20928,6 +21021,9 @@
       <c r="HE32" t="n">
         <v>3.07</v>
       </c>
+      <c r="HF32" t="n">
+        <v>2.29</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21571,6 +21667,9 @@
       <c r="HE33" t="n">
         <v>8.6</v>
       </c>
+      <c r="HF33" t="n">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22214,6 +22313,9 @@
       <c r="HE34" t="n">
         <v>27.9</v>
       </c>
+      <c r="HF34" t="n">
+        <v>43.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22857,6 +22959,9 @@
       <c r="HE35" t="n">
         <v>11.6</v>
       </c>
+      <c r="HF35" t="n">
+        <v>25.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23500,6 +23605,9 @@
       <c r="HE36" t="n">
         <v>185</v>
       </c>
+      <c r="HF36" t="n">
+        <v>185.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24143,6 +24251,9 @@
       <c r="HE37" t="n">
         <v>84.90000000000001</v>
       </c>
+      <c r="HF37" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24786,6 +24897,9 @@
       <c r="HE38" t="n">
         <v>26.24</v>
       </c>
+      <c r="HF38" t="n">
+        <v>26.49</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25429,6 +25543,9 @@
       <c r="HE39" t="n">
         <v>110.4</v>
       </c>
+      <c r="HF39" t="n">
+        <v>123.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26072,6 +26189,9 @@
       <c r="HE40" t="n">
         <v>7</v>
       </c>
+      <c r="HF40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26715,6 +26835,9 @@
       <c r="HE41" t="n">
         <v>5</v>
       </c>
+      <c r="HF41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27358,6 +27481,9 @@
       <c r="HE42" t="n">
         <v>2</v>
       </c>
+      <c r="HF42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28001,6 +28127,9 @@
       <c r="HE43" t="n">
         <v>8</v>
       </c>
+      <c r="HF43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28644,6 +28773,9 @@
       <c r="HE44" t="n">
         <v>121</v>
       </c>
+      <c r="HF44" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29287,6 +29419,9 @@
       <c r="HE45" t="n">
         <v>175</v>
       </c>
+      <c r="HF45" t="n">
+        <v>202</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29930,6 +30065,9 @@
       <c r="HE46" t="n">
         <v>208</v>
       </c>
+      <c r="HF46" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30573,6 +30711,9 @@
       <c r="HE47" t="n">
         <v>70</v>
       </c>
+      <c r="HF47" t="n">
+        <v>70.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31216,6 +31357,9 @@
       <c r="HE48" t="n">
         <v>59</v>
       </c>
+      <c r="HF48" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31859,6 +32003,9 @@
       <c r="HE49" t="n">
         <v>9</v>
       </c>
+      <c r="HF49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32502,6 +32649,9 @@
       <c r="HE50" t="n">
         <v>12</v>
       </c>
+      <c r="HF50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -33145,6 +33295,9 @@
       <c r="HE51" t="n">
         <v>17</v>
       </c>
+      <c r="HF51" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33788,6 +33941,9 @@
       <c r="HE52" t="n">
         <v>24</v>
       </c>
+      <c r="HF52" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -34431,6 +34587,9 @@
       <c r="HE53" t="n">
         <v>33</v>
       </c>
+      <c r="HF53" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -35074,6 +35233,9 @@
       <c r="HE54" t="n">
         <v>5</v>
       </c>
+      <c r="HF54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -35717,6 +35879,9 @@
       <c r="HE55" t="n">
         <v>4</v>
       </c>
+      <c r="HF55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -36360,6 +36525,9 @@
       <c r="HE56" t="n">
         <v>80</v>
       </c>
+      <c r="HF56" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -37003,6 +37171,9 @@
       <c r="HE57" t="n">
         <v>189</v>
       </c>
+      <c r="HF57" t="n">
+        <v>183</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -37646,6 +37817,9 @@
       <c r="HE58" t="n">
         <v>129</v>
       </c>
+      <c r="HF58" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -38289,6 +38463,9 @@
       <c r="HE59" t="n">
         <v>318</v>
       </c>
+      <c r="HF59" t="n">
+        <v>315</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -38932,6 +39109,9 @@
       <c r="HE60" t="n">
         <v>1.47</v>
       </c>
+      <c r="HF60" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -39575,6 +39755,9 @@
       <c r="HE61" t="n">
         <v>76</v>
       </c>
+      <c r="HF61" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -40218,6 +40401,9 @@
       <c r="HE62" t="n">
         <v>34</v>
       </c>
+      <c r="HF62" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -40861,6 +41047,9 @@
       <c r="HE63" t="n">
         <v>25</v>
       </c>
+      <c r="HF63" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -41504,6 +41693,9 @@
       <c r="HE64" t="n">
         <v>19</v>
       </c>
+      <c r="HF64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -42147,6 +42339,9 @@
       <c r="HE65" t="n">
         <v>23</v>
       </c>
+      <c r="HF65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -42790,6 +42985,9 @@
       <c r="HE66" t="n">
         <v>11</v>
       </c>
+      <c r="HF66" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -43433,6 +43631,9 @@
       <c r="HE67" t="n">
         <v>6</v>
       </c>
+      <c r="HF67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -44076,6 +44277,9 @@
       <c r="HE68" t="n">
         <v>3</v>
       </c>
+      <c r="HF68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -44719,6 +44923,9 @@
       <c r="HE69" t="n">
         <v>2</v>
       </c>
+      <c r="HF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -45362,6 +45569,9 @@
       <c r="HE70" t="n">
         <v>16</v>
       </c>
+      <c r="HF70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -46005,6 +46215,9 @@
       <c r="HE71" t="n">
         <v>68.8</v>
       </c>
+      <c r="HF71" t="n">
+        <v>83.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -46648,6 +46861,9 @@
       <c r="HE72" t="n">
         <v>28.91</v>
       </c>
+      <c r="HF72" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -47291,6 +47507,9 @@
       <c r="HE73" t="n">
         <v>19.88</v>
       </c>
+      <c r="HF73" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -47934,6 +48153,9 @@
       <c r="HE74" t="n">
         <v>22</v>
       </c>
+      <c r="HF74" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -48577,6 +48799,9 @@
       <c r="HE75" t="n">
         <v>55</v>
       </c>
+      <c r="HF75" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -49220,6 +49445,9 @@
       <c r="HE76" t="n">
         <v>38</v>
       </c>
+      <c r="HF76" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -49863,6 +50091,9 @@
       <c r="HE77" t="n">
         <v>35</v>
       </c>
+      <c r="HF77" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -50506,6 +50737,9 @@
       <c r="HE78" t="n">
         <v>2.19</v>
       </c>
+      <c r="HF78" t="n">
+        <v>2.11</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -51149,6 +51383,9 @@
       <c r="HE79" t="n">
         <v>3.18</v>
       </c>
+      <c r="HF79" t="n">
+        <v>2.53</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -51792,6 +52029,9 @@
       <c r="HE80" t="n">
         <v>40</v>
       </c>
+      <c r="HF80" t="n">
+        <v>47.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -52435,6 +52675,9 @@
       <c r="HE81" t="n">
         <v>31.4</v>
       </c>
+      <c r="HF81" t="n">
+        <v>39.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -53078,6 +53321,9 @@
       <c r="HE82" t="n">
         <v>188.5</v>
       </c>
+      <c r="HF82" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -53721,6 +53967,9 @@
       <c r="HE83" t="n">
         <v>87.90000000000001</v>
       </c>
+      <c r="HF83" t="n">
+        <v>85.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -54364,6 +54613,9 @@
       <c r="HE84" t="n">
         <v>27.91</v>
       </c>
+      <c r="HF84" t="n">
+        <v>24.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -55007,6 +55259,9 @@
       <c r="HE85" t="n">
         <v>139.6</v>
       </c>
+      <c r="HF85" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -55650,6 +55905,9 @@
       <c r="HE86" t="n">
         <v>3</v>
       </c>
+      <c r="HF86" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -56293,6 +56551,9 @@
       <c r="HE87" t="n">
         <v>7</v>
       </c>
+      <c r="HF87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -56936,6 +57197,9 @@
       <c r="HE88" t="n">
         <v>1</v>
       </c>
+      <c r="HF88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -57579,6 +57843,9 @@
       <c r="HE89" t="n">
         <v>11</v>
       </c>
+      <c r="HF89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -58222,6 +58489,9 @@
       <c r="HE90" t="n">
         <v>108</v>
       </c>
+      <c r="HF90" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -58865,6 +59135,9 @@
       <c r="HE91" t="n">
         <v>196</v>
       </c>
+      <c r="HF91" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -59508,6 +59781,9 @@
       <c r="HE92" t="n">
         <v>243</v>
       </c>
+      <c r="HF92" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -60151,6 +60427,9 @@
       <c r="HE93" t="n">
         <v>76.40000000000001</v>
       </c>
+      <c r="HF93" t="n">
+        <v>70.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -60794,6 +61073,9 @@
       <c r="HE94" t="n">
         <v>55</v>
       </c>
+      <c r="HF94" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -61437,6 +61719,9 @@
       <c r="HE95" t="n">
         <v>3</v>
       </c>
+      <c r="HF95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -62080,6 +62365,9 @@
       <c r="HE96" t="n">
         <v>5</v>
       </c>
+      <c r="HF96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -62723,6 +63011,9 @@
       <c r="HE97" t="n">
         <v>22</v>
       </c>
+      <c r="HF97" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -63366,6 +63657,9 @@
       <c r="HE98" t="n">
         <v>38</v>
       </c>
+      <c r="HF98" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -64009,6 +64303,9 @@
       <c r="HE99" t="n">
         <v>37</v>
       </c>
+      <c r="HF99" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -64652,6 +64949,9 @@
       <c r="HE100" t="n">
         <v>0</v>
       </c>
+      <c r="HF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -65295,6 +65595,9 @@
       <c r="HE101" t="n">
         <v>6</v>
       </c>
+      <c r="HF101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -65938,8 +66241,11 @@
       <c r="HE102" t="n">
         <v>54.5</v>
       </c>
+      <c r="HF102" t="n">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Richmond_stats.xlsx
+++ b/Richmond_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HF102"/>
+  <dimension ref="A1:HG102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -998,6 +998,9 @@
       <c r="HF1" t="n">
         <v>10147</v>
       </c>
+      <c r="HG1" t="n">
+        <v>10189</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1644,6 +1647,9 @@
       <c r="HF2" t="n">
         <v>2020</v>
       </c>
+      <c r="HG2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2290,6 +2296,9 @@
       <c r="HF3" t="n">
         <v>4</v>
       </c>
+      <c r="HG3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2936,6 +2945,9 @@
       <c r="HF4" t="n">
         <v>1</v>
       </c>
+      <c r="HG4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3582,6 +3594,9 @@
       <c r="HF5" t="n">
         <v>0</v>
       </c>
+      <c r="HG5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4228,6 +4243,9 @@
       <c r="HF6" t="n">
         <v>67</v>
       </c>
+      <c r="HG6" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4874,6 +4892,9 @@
       <c r="HF7" t="n">
         <v>93</v>
       </c>
+      <c r="HG7" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5520,6 +5541,9 @@
       <c r="HF8" t="n">
         <v>-26</v>
       </c>
+      <c r="HG8" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6166,6 +6190,9 @@
       <c r="HF9" t="n">
         <v>0</v>
       </c>
+      <c r="HG9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6812,6 +6839,9 @@
       <c r="HF10" t="n">
         <v>15</v>
       </c>
+      <c r="HG10" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7458,6 +7488,9 @@
       <c r="HF11" t="n">
         <v>149</v>
       </c>
+      <c r="HG11" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8104,6 +8137,9 @@
       <c r="HF12" t="n">
         <v>164</v>
       </c>
+      <c r="HG12" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8750,6 +8786,9 @@
       <c r="HF13" t="n">
         <v>313</v>
       </c>
+      <c r="HG13" t="n">
+        <v>335</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9396,6 +9435,9 @@
       <c r="HF14" t="n">
         <v>0.91</v>
       </c>
+      <c r="HG14" t="n">
+        <v>1.16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10042,6 +10084,9 @@
       <c r="HF15" t="n">
         <v>62</v>
       </c>
+      <c r="HG15" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10688,6 +10733,9 @@
       <c r="HF16" t="n">
         <v>51</v>
       </c>
+      <c r="HG16" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11334,6 +11382,9 @@
       <c r="HF17" t="n">
         <v>26</v>
       </c>
+      <c r="HG17" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11980,6 +12031,9 @@
       <c r="HF18" t="n">
         <v>15</v>
       </c>
+      <c r="HG18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12626,6 +12680,9 @@
       <c r="HF19" t="n">
         <v>15</v>
       </c>
+      <c r="HG19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13272,6 +13329,9 @@
       <c r="HF20" t="n">
         <v>10</v>
       </c>
+      <c r="HG20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13918,6 +13978,9 @@
       <c r="HF21" t="n">
         <v>9</v>
       </c>
+      <c r="HG21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14564,6 +14627,9 @@
       <c r="HF22" t="n">
         <v>7</v>
       </c>
+      <c r="HG22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15210,6 +15276,9 @@
       <c r="HF23" t="n">
         <v>0</v>
       </c>
+      <c r="HG23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15856,6 +15925,9 @@
       <c r="HF24" t="n">
         <v>17</v>
       </c>
+      <c r="HG24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16502,6 +16574,9 @@
       <c r="HF25" t="n">
         <v>58.8</v>
       </c>
+      <c r="HG25" t="n">
+        <v>63.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17148,6 +17223,9 @@
       <c r="HF26" t="n">
         <v>31.3</v>
       </c>
+      <c r="HG26" t="n">
+        <v>27.92</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17794,6 +17872,9 @@
       <c r="HF27" t="n">
         <v>18.41</v>
       </c>
+      <c r="HG27" t="n">
+        <v>17.63</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18440,6 +18521,9 @@
       <c r="HF28" t="n">
         <v>29</v>
       </c>
+      <c r="HG28" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19086,6 +19170,9 @@
       <c r="HF29" t="n">
         <v>53</v>
       </c>
+      <c r="HG29" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19732,6 +19819,9 @@
       <c r="HF30" t="n">
         <v>23</v>
       </c>
+      <c r="HG30" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20378,6 +20468,9 @@
       <c r="HF31" t="n">
         <v>39</v>
       </c>
+      <c r="HG31" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21024,6 +21117,9 @@
       <c r="HF32" t="n">
         <v>2.29</v>
       </c>
+      <c r="HG32" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21670,6 +21766,9 @@
       <c r="HF33" t="n">
         <v>3.9</v>
       </c>
+      <c r="HG33" t="n">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22316,6 +22415,9 @@
       <c r="HF34" t="n">
         <v>43.6</v>
       </c>
+      <c r="HG34" t="n">
+        <v>43.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22962,6 +23064,9 @@
       <c r="HF35" t="n">
         <v>25.6</v>
       </c>
+      <c r="HG35" t="n">
+        <v>30.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23608,6 +23713,9 @@
       <c r="HF36" t="n">
         <v>185.1</v>
       </c>
+      <c r="HG36" t="n">
+        <v>185.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24254,6 +24362,9 @@
       <c r="HF37" t="n">
         <v>85.3</v>
       </c>
+      <c r="HG37" t="n">
+        <v>85.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24900,6 +25011,9 @@
       <c r="HF38" t="n">
         <v>26.49</v>
       </c>
+      <c r="HG38" t="n">
+        <v>26.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25546,6 +25660,9 @@
       <c r="HF39" t="n">
         <v>123.2</v>
       </c>
+      <c r="HG39" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26192,6 +26309,9 @@
       <c r="HF40" t="n">
         <v>5</v>
       </c>
+      <c r="HG40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26838,6 +26958,9 @@
       <c r="HF41" t="n">
         <v>6</v>
       </c>
+      <c r="HG41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27484,6 +27607,9 @@
       <c r="HF42" t="n">
         <v>2</v>
       </c>
+      <c r="HG42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28130,6 +28256,9 @@
       <c r="HF43" t="n">
         <v>9</v>
       </c>
+      <c r="HG43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28776,6 +28905,9 @@
       <c r="HF44" t="n">
         <v>118</v>
       </c>
+      <c r="HG44" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29422,6 +29554,9 @@
       <c r="HF45" t="n">
         <v>202</v>
       </c>
+      <c r="HG45" t="n">
+        <v>205</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30068,6 +30203,9 @@
       <c r="HF46" t="n">
         <v>221</v>
       </c>
+      <c r="HG46" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30714,6 +30852,9 @@
       <c r="HF47" t="n">
         <v>70.59999999999999</v>
       </c>
+      <c r="HG47" t="n">
+        <v>73.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31360,6 +31501,9 @@
       <c r="HF48" t="n">
         <v>53</v>
       </c>
+      <c r="HG48" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32006,6 +32150,9 @@
       <c r="HF49" t="n">
         <v>6</v>
       </c>
+      <c r="HG49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32652,6 +32799,9 @@
       <c r="HF50" t="n">
         <v>8</v>
       </c>
+      <c r="HG50" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -33298,6 +33448,9 @@
       <c r="HF51" t="n">
         <v>29</v>
       </c>
+      <c r="HG51" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33944,6 +34097,9 @@
       <c r="HF52" t="n">
         <v>23</v>
       </c>
+      <c r="HG52" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -34590,6 +34746,9 @@
       <c r="HF53" t="n">
         <v>47</v>
       </c>
+      <c r="HG53" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -35236,6 +35395,9 @@
       <c r="HF54" t="n">
         <v>1</v>
       </c>
+      <c r="HG54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -35882,6 +36044,9 @@
       <c r="HF55" t="n">
         <v>9</v>
       </c>
+      <c r="HG55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -36528,6 +36693,9 @@
       <c r="HF56" t="n">
         <v>90</v>
       </c>
+      <c r="HG56" t="n">
+        <v>58.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -37174,6 +37342,9 @@
       <c r="HF57" t="n">
         <v>183</v>
       </c>
+      <c r="HG57" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -37820,6 +37991,9 @@
       <c r="HF58" t="n">
         <v>132</v>
       </c>
+      <c r="HG58" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -38466,6 +38640,9 @@
       <c r="HF59" t="n">
         <v>315</v>
       </c>
+      <c r="HG59" t="n">
+        <v>322</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -39112,6 +39289,9 @@
       <c r="HF60" t="n">
         <v>1.39</v>
       </c>
+      <c r="HG60" t="n">
+        <v>1.08</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -39758,6 +39938,9 @@
       <c r="HF61" t="n">
         <v>82</v>
       </c>
+      <c r="HG61" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -40404,6 +40587,9 @@
       <c r="HF62" t="n">
         <v>51</v>
       </c>
+      <c r="HG62" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41050,6 +41236,9 @@
       <c r="HF63" t="n">
         <v>31</v>
       </c>
+      <c r="HG63" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -41696,6 +41885,9 @@
       <c r="HF64" t="n">
         <v>15</v>
       </c>
+      <c r="HG64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -42342,6 +42534,9 @@
       <c r="HF65" t="n">
         <v>15</v>
       </c>
+      <c r="HG65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -42988,6 +43183,9 @@
       <c r="HF66" t="n">
         <v>15</v>
       </c>
+      <c r="HG66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -43634,6 +43832,9 @@
       <c r="HF67" t="n">
         <v>9</v>
       </c>
+      <c r="HG67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -44280,6 +44481,9 @@
       <c r="HF68" t="n">
         <v>3</v>
       </c>
+      <c r="HG68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -44926,6 +45130,9 @@
       <c r="HF69" t="n">
         <v>0</v>
       </c>
+      <c r="HG69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -45572,6 +45779,9 @@
       <c r="HF70" t="n">
         <v>18</v>
       </c>
+      <c r="HG70" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -46218,6 +46428,9 @@
       <c r="HF71" t="n">
         <v>83.3</v>
       </c>
+      <c r="HG71" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -46864,6 +47077,9 @@
       <c r="HF72" t="n">
         <v>21</v>
       </c>
+      <c r="HG72" t="n">
+        <v>40.25</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -47510,6 +47726,9 @@
       <c r="HF73" t="n">
         <v>17.5</v>
       </c>
+      <c r="HG73" t="n">
+        <v>26.83</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -48156,6 +48375,9 @@
       <c r="HF74" t="n">
         <v>33</v>
       </c>
+      <c r="HG74" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -48802,6 +49024,9 @@
       <c r="HF75" t="n">
         <v>47</v>
       </c>
+      <c r="HG75" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -49448,6 +49673,9 @@
       <c r="HF76" t="n">
         <v>28</v>
       </c>
+      <c r="HG76" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -50094,6 +50322,9 @@
       <c r="HF77" t="n">
         <v>38</v>
       </c>
+      <c r="HG77" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -50740,6 +50971,9 @@
       <c r="HF78" t="n">
         <v>2.11</v>
       </c>
+      <c r="HG78" t="n">
+        <v>3.58</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -51386,6 +51620,9 @@
       <c r="HF79" t="n">
         <v>2.53</v>
       </c>
+      <c r="HG79" t="n">
+        <v>5.38</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -52032,6 +52269,9 @@
       <c r="HF80" t="n">
         <v>47.4</v>
       </c>
+      <c r="HG80" t="n">
+        <v>25.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -52678,6 +52918,9 @@
       <c r="HF81" t="n">
         <v>39.5</v>
       </c>
+      <c r="HG81" t="n">
+        <v>18.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -53324,6 +53567,9 @@
       <c r="HF82" t="n">
         <v>188</v>
       </c>
+      <c r="HG82" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -53970,6 +54216,9 @@
       <c r="HF83" t="n">
         <v>85.90000000000001</v>
       </c>
+      <c r="HG83" t="n">
+        <v>87.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -54616,6 +54865,9 @@
       <c r="HF84" t="n">
         <v>24.33</v>
       </c>
+      <c r="HG84" t="n">
+        <v>25.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -55262,6 +55514,9 @@
       <c r="HF85" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="HG85" t="n">
+        <v>83.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -55908,6 +56163,9 @@
       <c r="HF86" t="n">
         <v>11</v>
       </c>
+      <c r="HG86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -56554,6 +56812,9 @@
       <c r="HF87" t="n">
         <v>6</v>
       </c>
+      <c r="HG87" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -57200,6 +57461,9 @@
       <c r="HF88" t="n">
         <v>3</v>
       </c>
+      <c r="HG88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -57846,6 +58110,9 @@
       <c r="HF89" t="n">
         <v>2</v>
       </c>
+      <c r="HG89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -58492,6 +58759,9 @@
       <c r="HF90" t="n">
         <v>118</v>
       </c>
+      <c r="HG90" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -59138,6 +59408,9 @@
       <c r="HF91" t="n">
         <v>186</v>
       </c>
+      <c r="HG91" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -59784,6 +60057,9 @@
       <c r="HF92" t="n">
         <v>222</v>
       </c>
+      <c r="HG92" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -60430,6 +60706,9 @@
       <c r="HF93" t="n">
         <v>70.5</v>
       </c>
+      <c r="HG93" t="n">
+        <v>74.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -61076,6 +61355,9 @@
       <c r="HF94" t="n">
         <v>47</v>
       </c>
+      <c r="HG94" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -61722,6 +62004,9 @@
       <c r="HF95" t="n">
         <v>12</v>
       </c>
+      <c r="HG95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -62368,6 +62653,9 @@
       <c r="HF96" t="n">
         <v>10</v>
       </c>
+      <c r="HG96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -63014,6 +63302,9 @@
       <c r="HF97" t="n">
         <v>33</v>
       </c>
+      <c r="HG97" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -63660,6 +63951,9 @@
       <c r="HF98" t="n">
         <v>28</v>
       </c>
+      <c r="HG98" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -64306,6 +64600,9 @@
       <c r="HF99" t="n">
         <v>36</v>
       </c>
+      <c r="HG99" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -64952,6 +65249,9 @@
       <c r="HF100" t="n">
         <v>0</v>
       </c>
+      <c r="HG100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -65598,6 +65898,9 @@
       <c r="HF101" t="n">
         <v>9</v>
       </c>
+      <c r="HG101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -66244,6 +66547,9 @@
       <c r="HF102" t="n">
         <v>60</v>
       </c>
+      <c r="HG102" t="n">
+        <v>87.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Richmond_stats.xlsx
+++ b/Richmond_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HG102"/>
+  <dimension ref="A1:HJ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,6 +1001,15 @@
       <c r="HG1" t="n">
         <v>10189</v>
       </c>
+      <c r="HH1" t="n">
+        <v>10216</v>
+      </c>
+      <c r="HI1" t="n">
+        <v>10222</v>
+      </c>
+      <c r="HJ1" t="n">
+        <v>10228</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1650,6 +1659,15 @@
       <c r="HG2" t="n">
         <v>2020</v>
       </c>
+      <c r="HH2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2299,6 +2317,15 @@
       <c r="HG3" t="n">
         <v>5</v>
       </c>
+      <c r="HH3" t="n">
+        <v>6</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>7</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2948,6 +2975,15 @@
       <c r="HG4" t="n">
         <v>1</v>
       </c>
+      <c r="HH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3597,6 +3633,15 @@
       <c r="HG5" t="n">
         <v>1</v>
       </c>
+      <c r="HH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4246,6 +4291,15 @@
       <c r="HG6" t="n">
         <v>79</v>
       </c>
+      <c r="HH6" t="n">
+        <v>34</v>
+      </c>
+      <c r="HI6" t="n">
+        <v>77</v>
+      </c>
+      <c r="HJ6" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4895,6 +4949,15 @@
       <c r="HG7" t="n">
         <v>52</v>
       </c>
+      <c r="HH7" t="n">
+        <v>26</v>
+      </c>
+      <c r="HI7" t="n">
+        <v>23</v>
+      </c>
+      <c r="HJ7" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5544,6 +5607,15 @@
       <c r="HG8" t="n">
         <v>27</v>
       </c>
+      <c r="HH8" t="n">
+        <v>8</v>
+      </c>
+      <c r="HI8" t="n">
+        <v>54</v>
+      </c>
+      <c r="HJ8" t="n">
+        <v>-12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6193,6 +6265,15 @@
       <c r="HG9" t="n">
         <v>1</v>
       </c>
+      <c r="HH9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HJ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6842,6 +6923,15 @@
       <c r="HG10" t="n">
         <v>11</v>
       </c>
+      <c r="HH10" t="n">
+        <v>16</v>
+      </c>
+      <c r="HI10" t="n">
+        <v>12</v>
+      </c>
+      <c r="HJ10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7491,6 +7581,15 @@
       <c r="HG11" t="n">
         <v>180</v>
       </c>
+      <c r="HH11" t="n">
+        <v>185</v>
+      </c>
+      <c r="HI11" t="n">
+        <v>182</v>
+      </c>
+      <c r="HJ11" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8140,6 +8239,15 @@
       <c r="HG12" t="n">
         <v>155</v>
       </c>
+      <c r="HH12" t="n">
+        <v>113</v>
+      </c>
+      <c r="HI12" t="n">
+        <v>119</v>
+      </c>
+      <c r="HJ12" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8789,6 +8897,15 @@
       <c r="HG13" t="n">
         <v>335</v>
       </c>
+      <c r="HH13" t="n">
+        <v>298</v>
+      </c>
+      <c r="HI13" t="n">
+        <v>301</v>
+      </c>
+      <c r="HJ13" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9438,6 +9555,15 @@
       <c r="HG14" t="n">
         <v>1.16</v>
       </c>
+      <c r="HH14" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="HI14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="HJ14" t="n">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10087,6 +10213,15 @@
       <c r="HG15" t="n">
         <v>82</v>
       </c>
+      <c r="HH15" t="n">
+        <v>83</v>
+      </c>
+      <c r="HI15" t="n">
+        <v>89</v>
+      </c>
+      <c r="HJ15" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10736,6 +10871,15 @@
       <c r="HG16" t="n">
         <v>37</v>
       </c>
+      <c r="HH16" t="n">
+        <v>46</v>
+      </c>
+      <c r="HI16" t="n">
+        <v>49</v>
+      </c>
+      <c r="HJ16" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11385,6 +11529,15 @@
       <c r="HG17" t="n">
         <v>13</v>
       </c>
+      <c r="HH17" t="n">
+        <v>32</v>
+      </c>
+      <c r="HI17" t="n">
+        <v>24</v>
+      </c>
+      <c r="HJ17" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12034,6 +12187,15 @@
       <c r="HG18" t="n">
         <v>17</v>
       </c>
+      <c r="HH18" t="n">
+        <v>18</v>
+      </c>
+      <c r="HI18" t="n">
+        <v>11</v>
+      </c>
+      <c r="HJ18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12683,6 +12845,15 @@
       <c r="HG19" t="n">
         <v>19</v>
       </c>
+      <c r="HH19" t="n">
+        <v>20</v>
+      </c>
+      <c r="HI19" t="n">
+        <v>18</v>
+      </c>
+      <c r="HJ19" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13332,6 +13503,15 @@
       <c r="HG20" t="n">
         <v>12</v>
       </c>
+      <c r="HH20" t="n">
+        <v>4</v>
+      </c>
+      <c r="HI20" t="n">
+        <v>11</v>
+      </c>
+      <c r="HJ20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13981,6 +14161,15 @@
       <c r="HG21" t="n">
         <v>7</v>
       </c>
+      <c r="HH21" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI21" t="n">
+        <v>4</v>
+      </c>
+      <c r="HJ21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14630,6 +14819,15 @@
       <c r="HG22" t="n">
         <v>5</v>
       </c>
+      <c r="HH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="HI22" t="n">
+        <v>9</v>
+      </c>
+      <c r="HJ22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15279,6 +15477,15 @@
       <c r="HG23" t="n">
         <v>2</v>
       </c>
+      <c r="HH23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HI23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HJ23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15928,6 +16135,15 @@
       <c r="HG24" t="n">
         <v>19</v>
       </c>
+      <c r="HH24" t="n">
+        <v>14</v>
+      </c>
+      <c r="HI24" t="n">
+        <v>22</v>
+      </c>
+      <c r="HJ24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16577,6 +16793,15 @@
       <c r="HG25" t="n">
         <v>63.2</v>
       </c>
+      <c r="HH25" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="HI25" t="n">
+        <v>50</v>
+      </c>
+      <c r="HJ25" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17226,6 +17451,15 @@
       <c r="HG26" t="n">
         <v>27.92</v>
       </c>
+      <c r="HH26" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="HI26" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="HJ26" t="n">
+        <v>39.17</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17875,6 +18109,15 @@
       <c r="HG27" t="n">
         <v>17.63</v>
       </c>
+      <c r="HH27" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="HI27" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="HJ27" t="n">
+        <v>11.75</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18524,6 +18767,15 @@
       <c r="HG28" t="n">
         <v>24</v>
       </c>
+      <c r="HH28" t="n">
+        <v>25</v>
+      </c>
+      <c r="HI28" t="n">
+        <v>20</v>
+      </c>
+      <c r="HJ28" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19173,6 +19425,15 @@
       <c r="HG29" t="n">
         <v>45</v>
       </c>
+      <c r="HH29" t="n">
+        <v>54</v>
+      </c>
+      <c r="HI29" t="n">
+        <v>38</v>
+      </c>
+      <c r="HJ29" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19822,6 +20083,15 @@
       <c r="HG30" t="n">
         <v>34</v>
       </c>
+      <c r="HH30" t="n">
+        <v>32</v>
+      </c>
+      <c r="HI30" t="n">
+        <v>25</v>
+      </c>
+      <c r="HJ30" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20471,6 +20741,15 @@
       <c r="HG31" t="n">
         <v>39</v>
       </c>
+      <c r="HH31" t="n">
+        <v>53</v>
+      </c>
+      <c r="HI31" t="n">
+        <v>51</v>
+      </c>
+      <c r="HJ31" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21120,6 +21399,15 @@
       <c r="HG32" t="n">
         <v>2.05</v>
       </c>
+      <c r="HH32" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="HI32" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="HJ32" t="n">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21769,6 +22057,15 @@
       <c r="HG33" t="n">
         <v>3.25</v>
       </c>
+      <c r="HH33" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="HI33" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="HJ33" t="n">
+        <v>7.67</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22418,6 +22715,15 @@
       <c r="HG34" t="n">
         <v>43.6</v>
       </c>
+      <c r="HH34" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="HI34" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="HJ34" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23067,6 +23373,15 @@
       <c r="HG35" t="n">
         <v>30.8</v>
       </c>
+      <c r="HH35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="HI35" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="HJ35" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23716,6 +24031,15 @@
       <c r="HG36" t="n">
         <v>185.7</v>
       </c>
+      <c r="HH36" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="HI36" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="HJ36" t="n">
+        <v>185.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24365,6 +24689,15 @@
       <c r="HG37" t="n">
         <v>85.90000000000001</v>
       </c>
+      <c r="HH37" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="HI37" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="HJ37" t="n">
+        <v>85.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25014,6 +25347,15 @@
       <c r="HG38" t="n">
         <v>26.66</v>
       </c>
+      <c r="HH38" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="HI38" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="HJ38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -25663,6 +26005,15 @@
       <c r="HG39" t="n">
         <v>120</v>
       </c>
+      <c r="HH39" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="HI39" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="HJ39" t="n">
+        <v>77.59999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26312,6 +26663,15 @@
       <c r="HG40" t="n">
         <v>5</v>
       </c>
+      <c r="HH40" t="n">
+        <v>10</v>
+      </c>
+      <c r="HI40" t="n">
+        <v>10</v>
+      </c>
+      <c r="HJ40" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26961,6 +27321,15 @@
       <c r="HG41" t="n">
         <v>6</v>
       </c>
+      <c r="HH41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HI41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HJ41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27610,6 +27979,15 @@
       <c r="HG42" t="n">
         <v>2</v>
       </c>
+      <c r="HH42" t="n">
+        <v>2</v>
+      </c>
+      <c r="HI42" t="n">
+        <v>2</v>
+      </c>
+      <c r="HJ42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28259,6 +28637,15 @@
       <c r="HG43" t="n">
         <v>9</v>
       </c>
+      <c r="HH43" t="n">
+        <v>5</v>
+      </c>
+      <c r="HI43" t="n">
+        <v>5</v>
+      </c>
+      <c r="HJ43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28908,6 +29295,15 @@
       <c r="HG44" t="n">
         <v>120</v>
       </c>
+      <c r="HH44" t="n">
+        <v>106</v>
+      </c>
+      <c r="HI44" t="n">
+        <v>90</v>
+      </c>
+      <c r="HJ44" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29557,6 +29953,15 @@
       <c r="HG45" t="n">
         <v>205</v>
       </c>
+      <c r="HH45" t="n">
+        <v>183</v>
+      </c>
+      <c r="HI45" t="n">
+        <v>209</v>
+      </c>
+      <c r="HJ45" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30206,6 +30611,15 @@
       <c r="HG46" t="n">
         <v>245</v>
       </c>
+      <c r="HH46" t="n">
+        <v>221</v>
+      </c>
+      <c r="HI46" t="n">
+        <v>238</v>
+      </c>
+      <c r="HJ46" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30855,6 +31269,15 @@
       <c r="HG47" t="n">
         <v>73.09999999999999</v>
       </c>
+      <c r="HH47" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="HI47" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="HJ47" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31504,6 +31927,15 @@
       <c r="HG48" t="n">
         <v>45</v>
       </c>
+      <c r="HH48" t="n">
+        <v>54</v>
+      </c>
+      <c r="HI48" t="n">
+        <v>38</v>
+      </c>
+      <c r="HJ48" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32153,6 +32585,15 @@
       <c r="HG49" t="n">
         <v>12</v>
       </c>
+      <c r="HH49" t="n">
+        <v>6</v>
+      </c>
+      <c r="HI49" t="n">
+        <v>5</v>
+      </c>
+      <c r="HJ49" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -32802,6 +33243,15 @@
       <c r="HG50" t="n">
         <v>13</v>
       </c>
+      <c r="HH50" t="n">
+        <v>8</v>
+      </c>
+      <c r="HI50" t="n">
+        <v>12</v>
+      </c>
+      <c r="HJ50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -33451,6 +33901,15 @@
       <c r="HG51" t="n">
         <v>24</v>
       </c>
+      <c r="HH51" t="n">
+        <v>25</v>
+      </c>
+      <c r="HI51" t="n">
+        <v>20</v>
+      </c>
+      <c r="HJ51" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34100,6 +34559,15 @@
       <c r="HG52" t="n">
         <v>34</v>
       </c>
+      <c r="HH52" t="n">
+        <v>32</v>
+      </c>
+      <c r="HI52" t="n">
+        <v>25</v>
+      </c>
+      <c r="HJ52" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -34749,6 +35217,15 @@
       <c r="HG53" t="n">
         <v>32</v>
       </c>
+      <c r="HH53" t="n">
+        <v>45</v>
+      </c>
+      <c r="HI53" t="n">
+        <v>46</v>
+      </c>
+      <c r="HJ53" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -35398,6 +35875,15 @@
       <c r="HG54" t="n">
         <v>4</v>
       </c>
+      <c r="HH54" t="n">
+        <v>13</v>
+      </c>
+      <c r="HI54" t="n">
+        <v>5</v>
+      </c>
+      <c r="HJ54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36047,6 +36533,15 @@
       <c r="HG55" t="n">
         <v>7</v>
       </c>
+      <c r="HH55" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI55" t="n">
+        <v>4</v>
+      </c>
+      <c r="HJ55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -36696,6 +37191,15 @@
       <c r="HG56" t="n">
         <v>58.3</v>
       </c>
+      <c r="HH56" t="n">
+        <v>75</v>
+      </c>
+      <c r="HI56" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="HJ56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -37345,6 +37849,15 @@
       <c r="HG57" t="n">
         <v>167</v>
       </c>
+      <c r="HH57" t="n">
+        <v>179</v>
+      </c>
+      <c r="HI57" t="n">
+        <v>163</v>
+      </c>
+      <c r="HJ57" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -37994,6 +38507,15 @@
       <c r="HG58" t="n">
         <v>155</v>
       </c>
+      <c r="HH58" t="n">
+        <v>123</v>
+      </c>
+      <c r="HI58" t="n">
+        <v>145</v>
+      </c>
+      <c r="HJ58" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -38643,6 +39165,15 @@
       <c r="HG59" t="n">
         <v>322</v>
       </c>
+      <c r="HH59" t="n">
+        <v>302</v>
+      </c>
+      <c r="HI59" t="n">
+        <v>308</v>
+      </c>
+      <c r="HJ59" t="n">
+        <v>282</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -39292,6 +39823,15 @@
       <c r="HG60" t="n">
         <v>1.08</v>
       </c>
+      <c r="HH60" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="HI60" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="HJ60" t="n">
+        <v>1.71</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -39941,6 +40481,15 @@
       <c r="HG61" t="n">
         <v>76</v>
       </c>
+      <c r="HH61" t="n">
+        <v>68</v>
+      </c>
+      <c r="HI61" t="n">
+        <v>62</v>
+      </c>
+      <c r="HJ61" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -40590,6 +41139,15 @@
       <c r="HG62" t="n">
         <v>45</v>
       </c>
+      <c r="HH62" t="n">
+        <v>56</v>
+      </c>
+      <c r="HI62" t="n">
+        <v>41</v>
+      </c>
+      <c r="HJ62" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41239,6 +41797,15 @@
       <c r="HG63" t="n">
         <v>34</v>
       </c>
+      <c r="HH63" t="n">
+        <v>5</v>
+      </c>
+      <c r="HI63" t="n">
+        <v>28</v>
+      </c>
+      <c r="HJ63" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -41888,6 +42455,15 @@
       <c r="HG64" t="n">
         <v>19</v>
       </c>
+      <c r="HH64" t="n">
+        <v>20</v>
+      </c>
+      <c r="HI64" t="n">
+        <v>18</v>
+      </c>
+      <c r="HJ64" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -42537,6 +43113,15 @@
       <c r="HG65" t="n">
         <v>17</v>
       </c>
+      <c r="HH65" t="n">
+        <v>18</v>
+      </c>
+      <c r="HI65" t="n">
+        <v>11</v>
+      </c>
+      <c r="HJ65" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -43186,6 +43771,15 @@
       <c r="HG66" t="n">
         <v>8</v>
       </c>
+      <c r="HH66" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI66" t="n">
+        <v>2</v>
+      </c>
+      <c r="HJ66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -43835,6 +44429,15 @@
       <c r="HG67" t="n">
         <v>7</v>
       </c>
+      <c r="HH67" t="n">
+        <v>2</v>
+      </c>
+      <c r="HI67" t="n">
+        <v>1</v>
+      </c>
+      <c r="HJ67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -44484,6 +45087,15 @@
       <c r="HG68" t="n">
         <v>3</v>
       </c>
+      <c r="HH68" t="n">
+        <v>8</v>
+      </c>
+      <c r="HI68" t="n">
+        <v>7</v>
+      </c>
+      <c r="HJ68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -45133,6 +45745,15 @@
       <c r="HG69" t="n">
         <v>1</v>
       </c>
+      <c r="HH69" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI69" t="n">
+        <v>4</v>
+      </c>
+      <c r="HJ69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -45782,6 +46403,15 @@
       <c r="HG70" t="n">
         <v>12</v>
       </c>
+      <c r="HH70" t="n">
+        <v>11</v>
+      </c>
+      <c r="HI70" t="n">
+        <v>13</v>
+      </c>
+      <c r="HJ70" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -46431,6 +47061,15 @@
       <c r="HG71" t="n">
         <v>66.7</v>
       </c>
+      <c r="HH71" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="HI71" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="HJ71" t="n">
+        <v>52.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -47080,6 +47719,15 @@
       <c r="HG72" t="n">
         <v>40.25</v>
       </c>
+      <c r="HH72" t="n">
+        <v>100.67</v>
+      </c>
+      <c r="HI72" t="n">
+        <v>154</v>
+      </c>
+      <c r="HJ72" t="n">
+        <v>31.33</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -47729,6 +48377,15 @@
       <c r="HG73" t="n">
         <v>26.83</v>
       </c>
+      <c r="HH73" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="HI73" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="HJ73" t="n">
+        <v>16.59</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -48378,6 +49035,15 @@
       <c r="HG74" t="n">
         <v>25</v>
       </c>
+      <c r="HH74" t="n">
+        <v>21</v>
+      </c>
+      <c r="HI74" t="n">
+        <v>32</v>
+      </c>
+      <c r="HJ74" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -49027,6 +49693,15 @@
       <c r="HG75" t="n">
         <v>55</v>
       </c>
+      <c r="HH75" t="n">
+        <v>53</v>
+      </c>
+      <c r="HI75" t="n">
+        <v>42</v>
+      </c>
+      <c r="HJ75" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -49676,6 +50351,15 @@
       <c r="HG76" t="n">
         <v>27</v>
       </c>
+      <c r="HH76" t="n">
+        <v>48</v>
+      </c>
+      <c r="HI76" t="n">
+        <v>38</v>
+      </c>
+      <c r="HJ76" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -50325,6 +51009,15 @@
       <c r="HG77" t="n">
         <v>43</v>
       </c>
+      <c r="HH77" t="n">
+        <v>35</v>
+      </c>
+      <c r="HI77" t="n">
+        <v>28</v>
+      </c>
+      <c r="HJ77" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -50974,6 +51667,15 @@
       <c r="HG78" t="n">
         <v>3.58</v>
       </c>
+      <c r="HH78" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="HI78" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="HJ78" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -51623,6 +52325,15 @@
       <c r="HG79" t="n">
         <v>5.38</v>
       </c>
+      <c r="HH79" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="HI79" t="n">
+        <v>14</v>
+      </c>
+      <c r="HJ79" t="n">
+        <v>3.56</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -52272,6 +52983,15 @@
       <c r="HG80" t="n">
         <v>25.6</v>
       </c>
+      <c r="HH80" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="HI80" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="HJ80" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -52921,6 +53641,15 @@
       <c r="HG81" t="n">
         <v>18.6</v>
       </c>
+      <c r="HH81" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="HI81" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="HJ81" t="n">
+        <v>28.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -53570,6 +54299,15 @@
       <c r="HG82" t="n">
         <v>187.4</v>
       </c>
+      <c r="HH82" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="HI82" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="HJ82" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -54219,6 +54957,15 @@
       <c r="HG83" t="n">
         <v>87.2</v>
       </c>
+      <c r="HH83" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="HI83" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="HJ83" t="n">
+        <v>87.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -54868,6 +55615,15 @@
       <c r="HG84" t="n">
         <v>25.33</v>
       </c>
+      <c r="HH84" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="HI84" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="HJ84" t="n">
+        <v>26.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -55517,6 +56273,15 @@
       <c r="HG85" t="n">
         <v>83.7</v>
       </c>
+      <c r="HH85" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="HI85" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="HJ85" t="n">
+        <v>105.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -56166,6 +56931,15 @@
       <c r="HG86" t="n">
         <v>7</v>
       </c>
+      <c r="HH86" t="n">
+        <v>9</v>
+      </c>
+      <c r="HI86" t="n">
+        <v>6</v>
+      </c>
+      <c r="HJ86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -56815,6 +57589,15 @@
       <c r="HG87" t="n">
         <v>8</v>
       </c>
+      <c r="HH87" t="n">
+        <v>6</v>
+      </c>
+      <c r="HI87" t="n">
+        <v>4</v>
+      </c>
+      <c r="HJ87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -57464,6 +58247,15 @@
       <c r="HG88" t="n">
         <v>5</v>
       </c>
+      <c r="HH88" t="n">
+        <v>4</v>
+      </c>
+      <c r="HI88" t="n">
+        <v>5</v>
+      </c>
+      <c r="HJ88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -58113,6 +58905,15 @@
       <c r="HG89" t="n">
         <v>2</v>
       </c>
+      <c r="HH89" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI89" t="n">
+        <v>7</v>
+      </c>
+      <c r="HJ89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -58762,6 +59563,15 @@
       <c r="HG90" t="n">
         <v>116</v>
       </c>
+      <c r="HH90" t="n">
+        <v>108</v>
+      </c>
+      <c r="HI90" t="n">
+        <v>111</v>
+      </c>
+      <c r="HJ90" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -59411,6 +60221,15 @@
       <c r="HG91" t="n">
         <v>204</v>
       </c>
+      <c r="HH91" t="n">
+        <v>180</v>
+      </c>
+      <c r="HI91" t="n">
+        <v>189</v>
+      </c>
+      <c r="HJ91" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -60060,6 +60879,15 @@
       <c r="HG92" t="n">
         <v>241</v>
       </c>
+      <c r="HH92" t="n">
+        <v>217</v>
+      </c>
+      <c r="HI92" t="n">
+        <v>223</v>
+      </c>
+      <c r="HJ92" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -60709,6 +61537,15 @@
       <c r="HG93" t="n">
         <v>74.8</v>
       </c>
+      <c r="HH93" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="HI93" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="HJ93" t="n">
+        <v>67.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -61358,6 +62195,15 @@
       <c r="HG94" t="n">
         <v>55</v>
       </c>
+      <c r="HH94" t="n">
+        <v>53</v>
+      </c>
+      <c r="HI94" t="n">
+        <v>42</v>
+      </c>
+      <c r="HJ94" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -62007,6 +62853,15 @@
       <c r="HG95" t="n">
         <v>10</v>
       </c>
+      <c r="HH95" t="n">
+        <v>5</v>
+      </c>
+      <c r="HI95" t="n">
+        <v>7</v>
+      </c>
+      <c r="HJ95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -62656,6 +63511,15 @@
       <c r="HG96" t="n">
         <v>9</v>
       </c>
+      <c r="HH96" t="n">
+        <v>5</v>
+      </c>
+      <c r="HI96" t="n">
+        <v>9</v>
+      </c>
+      <c r="HJ96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -63305,6 +64169,15 @@
       <c r="HG97" t="n">
         <v>25</v>
       </c>
+      <c r="HH97" t="n">
+        <v>21</v>
+      </c>
+      <c r="HI97" t="n">
+        <v>32</v>
+      </c>
+      <c r="HJ97" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -63954,6 +64827,15 @@
       <c r="HG98" t="n">
         <v>27</v>
       </c>
+      <c r="HH98" t="n">
+        <v>48</v>
+      </c>
+      <c r="HI98" t="n">
+        <v>38</v>
+      </c>
+      <c r="HJ98" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -64603,6 +65485,15 @@
       <c r="HG99" t="n">
         <v>44</v>
       </c>
+      <c r="HH99" t="n">
+        <v>42</v>
+      </c>
+      <c r="HI99" t="n">
+        <v>30</v>
+      </c>
+      <c r="HJ99" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -65252,6 +66143,15 @@
       <c r="HG100" t="n">
         <v>0</v>
       </c>
+      <c r="HH100" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI100" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -65901,6 +66801,15 @@
       <c r="HG101" t="n">
         <v>7</v>
       </c>
+      <c r="HH101" t="n">
+        <v>2</v>
+      </c>
+      <c r="HI101" t="n">
+        <v>1</v>
+      </c>
+      <c r="HJ101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -66550,6 +67459,15 @@
       <c r="HG102" t="n">
         <v>87.5</v>
       </c>
+      <c r="HH102" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HI102" t="n">
+        <v>50</v>
+      </c>
+      <c r="HJ102" t="n">
+        <v>55.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Richmond_stats.xlsx
+++ b/Richmond_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HJ102"/>
+  <dimension ref="A1:HK102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1010,6 +1010,9 @@
       <c r="HJ1" t="n">
         <v>10228</v>
       </c>
+      <c r="HK1" t="n">
+        <v>10236</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1668,6 +1671,9 @@
       <c r="HJ2" t="n">
         <v>2020</v>
       </c>
+      <c r="HK2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2326,6 +2332,9 @@
       <c r="HJ3" t="n">
         <v>8</v>
       </c>
+      <c r="HK3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2984,6 +2993,9 @@
       <c r="HJ4" t="n">
         <v>1</v>
       </c>
+      <c r="HK4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3642,6 +3654,9 @@
       <c r="HJ5" t="n">
         <v>0</v>
       </c>
+      <c r="HK5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4300,6 +4315,9 @@
       <c r="HJ6" t="n">
         <v>50</v>
       </c>
+      <c r="HK6" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4958,6 +4976,9 @@
       <c r="HJ7" t="n">
         <v>62</v>
       </c>
+      <c r="HK7" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5616,6 +5637,9 @@
       <c r="HJ8" t="n">
         <v>-12</v>
       </c>
+      <c r="HK8" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6274,6 +6298,9 @@
       <c r="HJ9" t="n">
         <v>0</v>
       </c>
+      <c r="HK9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6932,6 +6959,9 @@
       <c r="HJ10" t="n">
         <v>9</v>
       </c>
+      <c r="HK10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7590,6 +7620,9 @@
       <c r="HJ11" t="n">
         <v>146</v>
       </c>
+      <c r="HK11" t="n">
+        <v>184</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8248,6 +8281,9 @@
       <c r="HJ12" t="n">
         <v>89</v>
       </c>
+      <c r="HK12" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8906,6 +8942,9 @@
       <c r="HJ13" t="n">
         <v>235</v>
       </c>
+      <c r="HK13" t="n">
+        <v>309</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9564,6 +9603,9 @@
       <c r="HJ14" t="n">
         <v>1.64</v>
       </c>
+      <c r="HK14" t="n">
+        <v>1.47</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10222,6 +10264,9 @@
       <c r="HJ15" t="n">
         <v>56</v>
       </c>
+      <c r="HK15" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10880,6 +10925,9 @@
       <c r="HJ16" t="n">
         <v>54</v>
       </c>
+      <c r="HK16" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11538,6 +11586,9 @@
       <c r="HJ17" t="n">
         <v>44</v>
       </c>
+      <c r="HK17" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12196,6 +12247,9 @@
       <c r="HJ18" t="n">
         <v>20</v>
       </c>
+      <c r="HK18" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12854,6 +12908,9 @@
       <c r="HJ19" t="n">
         <v>22</v>
       </c>
+      <c r="HK19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13512,6 +13569,9 @@
       <c r="HJ20" t="n">
         <v>6</v>
       </c>
+      <c r="HK20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14170,6 +14230,9 @@
       <c r="HJ21" t="n">
         <v>3</v>
       </c>
+      <c r="HK21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14828,6 +14891,9 @@
       <c r="HJ22" t="n">
         <v>11</v>
       </c>
+      <c r="HK22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15486,6 +15552,9 @@
       <c r="HJ23" t="n">
         <v>3</v>
       </c>
+      <c r="HK23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16144,6 +16213,9 @@
       <c r="HJ24" t="n">
         <v>20</v>
       </c>
+      <c r="HK24" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16802,6 +16874,9 @@
       <c r="HJ25" t="n">
         <v>30</v>
       </c>
+      <c r="HK25" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17460,6 +17535,9 @@
       <c r="HJ26" t="n">
         <v>39.17</v>
       </c>
+      <c r="HK26" t="n">
+        <v>23.77</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18118,6 +18196,9 @@
       <c r="HJ27" t="n">
         <v>11.75</v>
       </c>
+      <c r="HK27" t="n">
+        <v>12.36</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18776,6 +18857,9 @@
       <c r="HJ28" t="n">
         <v>29</v>
       </c>
+      <c r="HK28" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19434,6 +19518,9 @@
       <c r="HJ29" t="n">
         <v>51</v>
       </c>
+      <c r="HK29" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20092,6 +20179,9 @@
       <c r="HJ30" t="n">
         <v>21</v>
       </c>
+      <c r="HK30" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20750,6 +20840,9 @@
       <c r="HJ31" t="n">
         <v>46</v>
       </c>
+      <c r="HK31" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21408,6 +21501,9 @@
       <c r="HJ32" t="n">
         <v>2.3</v>
       </c>
+      <c r="HK32" t="n">
+        <v>1.92</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22066,6 +22162,9 @@
       <c r="HJ33" t="n">
         <v>7.67</v>
       </c>
+      <c r="HK33" t="n">
+        <v>3.69</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22724,6 +22823,9 @@
       <c r="HJ34" t="n">
         <v>37</v>
       </c>
+      <c r="HK34" t="n">
+        <v>43.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23382,6 +23484,9 @@
       <c r="HJ35" t="n">
         <v>13</v>
       </c>
+      <c r="HK35" t="n">
+        <v>27.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24040,6 +24145,9 @@
       <c r="HJ36" t="n">
         <v>185.7</v>
       </c>
+      <c r="HK36" t="n">
+        <v>186.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24698,6 +24806,9 @@
       <c r="HJ37" t="n">
         <v>85.09999999999999</v>
       </c>
+      <c r="HK37" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25356,6 +25467,9 @@
       <c r="HJ38" t="n">
         <v>25.8</v>
       </c>
+      <c r="HK38" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26014,6 +26128,9 @@
       <c r="HJ39" t="n">
         <v>77.59999999999999</v>
       </c>
+      <c r="HK39" t="n">
+        <v>78.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26672,6 +26789,9 @@
       <c r="HJ40" t="n">
         <v>11</v>
       </c>
+      <c r="HK40" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27330,6 +27450,9 @@
       <c r="HJ41" t="n">
         <v>5</v>
       </c>
+      <c r="HK41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -27988,6 +28111,9 @@
       <c r="HJ42" t="n">
         <v>2</v>
       </c>
+      <c r="HK42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28646,6 +28772,9 @@
       <c r="HJ43" t="n">
         <v>4</v>
       </c>
+      <c r="HK43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29304,6 +29433,9 @@
       <c r="HJ44" t="n">
         <v>105</v>
       </c>
+      <c r="HK44" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -29962,6 +30094,9 @@
       <c r="HJ45" t="n">
         <v>130</v>
       </c>
+      <c r="HK45" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30620,6 +30755,9 @@
       <c r="HJ46" t="n">
         <v>155</v>
       </c>
+      <c r="HK46" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31278,6 +31416,9 @@
       <c r="HJ47" t="n">
         <v>66</v>
       </c>
+      <c r="HK47" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31936,6 +32077,9 @@
       <c r="HJ48" t="n">
         <v>51</v>
       </c>
+      <c r="HK48" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32594,6 +32738,9 @@
       <c r="HJ49" t="n">
         <v>5</v>
       </c>
+      <c r="HK49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33252,6 +33399,9 @@
       <c r="HJ50" t="n">
         <v>6</v>
       </c>
+      <c r="HK50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -33910,6 +34060,9 @@
       <c r="HJ51" t="n">
         <v>29</v>
       </c>
+      <c r="HK51" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34568,6 +34721,9 @@
       <c r="HJ52" t="n">
         <v>21</v>
       </c>
+      <c r="HK52" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35226,6 +35382,9 @@
       <c r="HJ53" t="n">
         <v>32</v>
       </c>
+      <c r="HK53" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -35884,6 +36043,9 @@
       <c r="HJ54" t="n">
         <v>5</v>
       </c>
+      <c r="HK54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36542,6 +36704,9 @@
       <c r="HJ55" t="n">
         <v>3</v>
       </c>
+      <c r="HK55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37200,6 +37365,9 @@
       <c r="HJ56" t="n">
         <v>50</v>
       </c>
+      <c r="HK56" t="n">
+        <v>76.90000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -37858,6 +38026,9 @@
       <c r="HJ57" t="n">
         <v>178</v>
       </c>
+      <c r="HK57" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -38516,6 +38687,9 @@
       <c r="HJ58" t="n">
         <v>104</v>
       </c>
+      <c r="HK58" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -39174,6 +39348,9 @@
       <c r="HJ59" t="n">
         <v>282</v>
       </c>
+      <c r="HK59" t="n">
+        <v>278</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -39832,6 +40009,9 @@
       <c r="HJ60" t="n">
         <v>1.71</v>
       </c>
+      <c r="HK60" t="n">
+        <v>1.03</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -40490,6 +40670,9 @@
       <c r="HJ61" t="n">
         <v>71</v>
       </c>
+      <c r="HK61" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -41148,6 +41331,9 @@
       <c r="HJ62" t="n">
         <v>68</v>
       </c>
+      <c r="HK62" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41806,6 +41992,9 @@
       <c r="HJ63" t="n">
         <v>29</v>
       </c>
+      <c r="HK63" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -42464,6 +42653,9 @@
       <c r="HJ64" t="n">
         <v>22</v>
       </c>
+      <c r="HK64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -43122,6 +43314,9 @@
       <c r="HJ65" t="n">
         <v>20</v>
       </c>
+      <c r="HK65" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -43780,6 +43975,9 @@
       <c r="HJ66" t="n">
         <v>9</v>
       </c>
+      <c r="HK66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -44438,6 +44636,9 @@
       <c r="HJ67" t="n">
         <v>5</v>
       </c>
+      <c r="HK67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45096,6 +45297,9 @@
       <c r="HJ68" t="n">
         <v>7</v>
       </c>
+      <c r="HK68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -45754,6 +45958,9 @@
       <c r="HJ69" t="n">
         <v>1</v>
       </c>
+      <c r="HK69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -46412,6 +46619,9 @@
       <c r="HJ70" t="n">
         <v>17</v>
       </c>
+      <c r="HK70" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -47070,6 +47280,9 @@
       <c r="HJ71" t="n">
         <v>52.9</v>
       </c>
+      <c r="HK71" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -47728,6 +47941,9 @@
       <c r="HJ72" t="n">
         <v>31.33</v>
       </c>
+      <c r="HK72" t="n">
+        <v>39.71</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -48386,6 +48602,9 @@
       <c r="HJ73" t="n">
         <v>16.59</v>
       </c>
+      <c r="HK73" t="n">
+        <v>19.86</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -49044,6 +49263,9 @@
       <c r="HJ74" t="n">
         <v>37</v>
       </c>
+      <c r="HK74" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -49702,6 +49924,9 @@
       <c r="HJ75" t="n">
         <v>45</v>
       </c>
+      <c r="HK75" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -50360,6 +50585,9 @@
       <c r="HJ76" t="n">
         <v>38</v>
       </c>
+      <c r="HK76" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -51018,6 +51246,9 @@
       <c r="HJ77" t="n">
         <v>32</v>
       </c>
+      <c r="HK77" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -51676,6 +51907,9 @@
       <c r="HJ78" t="n">
         <v>1.88</v>
       </c>
+      <c r="HK78" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -52334,6 +52568,9 @@
       <c r="HJ79" t="n">
         <v>3.56</v>
       </c>
+      <c r="HK79" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -52992,6 +53229,9 @@
       <c r="HJ80" t="n">
         <v>50</v>
       </c>
+      <c r="HK80" t="n">
+        <v>37.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -53650,6 +53890,9 @@
       <c r="HJ81" t="n">
         <v>28.1</v>
       </c>
+      <c r="HK81" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -54308,6 +54551,9 @@
       <c r="HJ82" t="n">
         <v>188.3</v>
       </c>
+      <c r="HK82" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -54966,6 +55212,9 @@
       <c r="HJ83" t="n">
         <v>87.7</v>
       </c>
+      <c r="HK83" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -55624,6 +55873,9 @@
       <c r="HJ84" t="n">
         <v>26.8</v>
       </c>
+      <c r="HK84" t="n">
+        <v>25.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -56282,6 +56534,9 @@
       <c r="HJ85" t="n">
         <v>105.8</v>
       </c>
+      <c r="HK85" t="n">
+        <v>95.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -56940,6 +57195,9 @@
       <c r="HJ86" t="n">
         <v>7</v>
       </c>
+      <c r="HK86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -57598,6 +57856,9 @@
       <c r="HJ87" t="n">
         <v>5</v>
       </c>
+      <c r="HK87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -58256,6 +58517,9 @@
       <c r="HJ88" t="n">
         <v>4</v>
       </c>
+      <c r="HK88" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -58914,6 +59178,9 @@
       <c r="HJ89" t="n">
         <v>6</v>
       </c>
+      <c r="HK89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -59572,6 +59839,9 @@
       <c r="HJ90" t="n">
         <v>122</v>
       </c>
+      <c r="HK90" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -60230,6 +60500,9 @@
       <c r="HJ91" t="n">
         <v>145</v>
       </c>
+      <c r="HK91" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -60888,6 +61161,9 @@
       <c r="HJ92" t="n">
         <v>191</v>
       </c>
+      <c r="HK92" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -61546,6 +61822,9 @@
       <c r="HJ93" t="n">
         <v>67.7</v>
       </c>
+      <c r="HK93" t="n">
+        <v>69.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -62204,6 +62483,9 @@
       <c r="HJ94" t="n">
         <v>45</v>
       </c>
+      <c r="HK94" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -62862,6 +63144,9 @@
       <c r="HJ95" t="n">
         <v>8</v>
       </c>
+      <c r="HK95" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -63520,6 +63805,9 @@
       <c r="HJ96" t="n">
         <v>8</v>
       </c>
+      <c r="HK96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -64178,6 +64466,9 @@
       <c r="HJ97" t="n">
         <v>37</v>
       </c>
+      <c r="HK97" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -64836,6 +65127,9 @@
       <c r="HJ98" t="n">
         <v>38</v>
       </c>
+      <c r="HK98" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -65494,6 +65788,9 @@
       <c r="HJ99" t="n">
         <v>44</v>
       </c>
+      <c r="HK99" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -66152,6 +66449,9 @@
       <c r="HJ100" t="n">
         <v>2</v>
       </c>
+      <c r="HK100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -66810,6 +67110,9 @@
       <c r="HJ101" t="n">
         <v>5</v>
       </c>
+      <c r="HK101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -67468,8 +67771,11 @@
       <c r="HJ102" t="n">
         <v>55.6</v>
       </c>
+      <c r="HK102" t="n">
+        <v>85.7</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Richmond_stats.xlsx
+++ b/Richmond_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HK102"/>
+  <dimension ref="A1:HN102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1013,6 +1013,15 @@
       <c r="HK1" t="n">
         <v>10236</v>
       </c>
+      <c r="HL1" t="n">
+        <v>10246</v>
+      </c>
+      <c r="HM1" t="n">
+        <v>10252</v>
+      </c>
+      <c r="HN1" t="n">
+        <v>10268</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1674,6 +1683,15 @@
       <c r="HK2" t="n">
         <v>2020</v>
       </c>
+      <c r="HL2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2335,6 +2353,15 @@
       <c r="HK3" t="n">
         <v>9</v>
       </c>
+      <c r="HL3" t="n">
+        <v>10</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>11</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2996,6 +3023,15 @@
       <c r="HK4" t="n">
         <v>1</v>
       </c>
+      <c r="HL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3657,6 +3693,15 @@
       <c r="HK5" t="n">
         <v>1</v>
       </c>
+      <c r="HL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4318,6 +4363,15 @@
       <c r="HK6" t="n">
         <v>90</v>
       </c>
+      <c r="HL6" t="n">
+        <v>82</v>
+      </c>
+      <c r="HM6" t="n">
+        <v>72</v>
+      </c>
+      <c r="HN6" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4979,6 +5033,15 @@
       <c r="HK7" t="n">
         <v>49</v>
       </c>
+      <c r="HL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="HM7" t="n">
+        <v>93</v>
+      </c>
+      <c r="HN7" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5640,6 +5703,15 @@
       <c r="HK8" t="n">
         <v>41</v>
       </c>
+      <c r="HL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="HM8" t="n">
+        <v>-21</v>
+      </c>
+      <c r="HN8" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6301,6 +6373,15 @@
       <c r="HK9" t="n">
         <v>1</v>
       </c>
+      <c r="HL9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6962,6 +7043,15 @@
       <c r="HK10" t="n">
         <v>18</v>
       </c>
+      <c r="HL10" t="n">
+        <v>2</v>
+      </c>
+      <c r="HM10" t="n">
+        <v>13</v>
+      </c>
+      <c r="HN10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7623,6 +7713,15 @@
       <c r="HK11" t="n">
         <v>184</v>
       </c>
+      <c r="HL11" t="n">
+        <v>183</v>
+      </c>
+      <c r="HM11" t="n">
+        <v>140</v>
+      </c>
+      <c r="HN11" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8284,6 +8383,15 @@
       <c r="HK12" t="n">
         <v>125</v>
       </c>
+      <c r="HL12" t="n">
+        <v>112</v>
+      </c>
+      <c r="HM12" t="n">
+        <v>101</v>
+      </c>
+      <c r="HN12" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8945,6 +9053,15 @@
       <c r="HK13" t="n">
         <v>309</v>
       </c>
+      <c r="HL13" t="n">
+        <v>295</v>
+      </c>
+      <c r="HM13" t="n">
+        <v>241</v>
+      </c>
+      <c r="HN13" t="n">
+        <v>287</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9606,6 +9723,15 @@
       <c r="HK14" t="n">
         <v>1.47</v>
       </c>
+      <c r="HL14" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="HM14" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="HN14" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10267,6 +10393,15 @@
       <c r="HK15" t="n">
         <v>80</v>
       </c>
+      <c r="HL15" t="n">
+        <v>80</v>
+      </c>
+      <c r="HM15" t="n">
+        <v>47</v>
+      </c>
+      <c r="HN15" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10928,6 +11063,15 @@
       <c r="HK16" t="n">
         <v>47</v>
       </c>
+      <c r="HL16" t="n">
+        <v>39</v>
+      </c>
+      <c r="HM16" t="n">
+        <v>68</v>
+      </c>
+      <c r="HN16" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11589,6 +11733,15 @@
       <c r="HK17" t="n">
         <v>30</v>
       </c>
+      <c r="HL17" t="n">
+        <v>23</v>
+      </c>
+      <c r="HM17" t="n">
+        <v>36</v>
+      </c>
+      <c r="HN17" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12250,6 +12403,15 @@
       <c r="HK18" t="n">
         <v>25</v>
       </c>
+      <c r="HL18" t="n">
+        <v>11</v>
+      </c>
+      <c r="HM18" t="n">
+        <v>11</v>
+      </c>
+      <c r="HN18" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12911,6 +13073,15 @@
       <c r="HK19" t="n">
         <v>21</v>
       </c>
+      <c r="HL19" t="n">
+        <v>18</v>
+      </c>
+      <c r="HM19" t="n">
+        <v>22</v>
+      </c>
+      <c r="HN19" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13572,6 +13743,15 @@
       <c r="HK20" t="n">
         <v>13</v>
       </c>
+      <c r="HL20" t="n">
+        <v>12</v>
+      </c>
+      <c r="HM20" t="n">
+        <v>11</v>
+      </c>
+      <c r="HN20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14233,6 +14413,15 @@
       <c r="HK21" t="n">
         <v>10</v>
       </c>
+      <c r="HL21" t="n">
+        <v>9</v>
+      </c>
+      <c r="HM21" t="n">
+        <v>6</v>
+      </c>
+      <c r="HN21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14894,6 +15083,15 @@
       <c r="HK22" t="n">
         <v>8</v>
       </c>
+      <c r="HL22" t="n">
+        <v>7</v>
+      </c>
+      <c r="HM22" t="n">
+        <v>3</v>
+      </c>
+      <c r="HN22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15555,6 +15753,15 @@
       <c r="HK23" t="n">
         <v>4</v>
       </c>
+      <c r="HL23" t="n">
+        <v>3</v>
+      </c>
+      <c r="HM23" t="n">
+        <v>3</v>
+      </c>
+      <c r="HN23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16216,6 +16423,15 @@
       <c r="HK24" t="n">
         <v>25</v>
       </c>
+      <c r="HL24" t="n">
+        <v>22</v>
+      </c>
+      <c r="HM24" t="n">
+        <v>17</v>
+      </c>
+      <c r="HN24" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16877,6 +17093,15 @@
       <c r="HK25" t="n">
         <v>52</v>
       </c>
+      <c r="HL25" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="HM25" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="HN25" t="n">
+        <v>61.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17538,6 +17763,15 @@
       <c r="HK26" t="n">
         <v>23.77</v>
       </c>
+      <c r="HL26" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="HM26" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="HN26" t="n">
+        <v>35.88</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18199,6 +18433,15 @@
       <c r="HK27" t="n">
         <v>12.36</v>
       </c>
+      <c r="HL27" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="HM27" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="HN27" t="n">
+        <v>22.08</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18860,6 +19103,15 @@
       <c r="HK28" t="n">
         <v>23</v>
       </c>
+      <c r="HL28" t="n">
+        <v>20</v>
+      </c>
+      <c r="HM28" t="n">
+        <v>22</v>
+      </c>
+      <c r="HN28" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19521,6 +19773,15 @@
       <c r="HK29" t="n">
         <v>58</v>
       </c>
+      <c r="HL29" t="n">
+        <v>57</v>
+      </c>
+      <c r="HM29" t="n">
+        <v>52</v>
+      </c>
+      <c r="HN29" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20182,6 +20443,15 @@
       <c r="HK30" t="n">
         <v>27</v>
       </c>
+      <c r="HL30" t="n">
+        <v>35</v>
+      </c>
+      <c r="HM30" t="n">
+        <v>39</v>
+      </c>
+      <c r="HN30" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20843,6 +21113,15 @@
       <c r="HK31" t="n">
         <v>48</v>
       </c>
+      <c r="HL31" t="n">
+        <v>44</v>
+      </c>
+      <c r="HM31" t="n">
+        <v>24</v>
+      </c>
+      <c r="HN31" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21504,6 +21783,15 @@
       <c r="HK32" t="n">
         <v>1.92</v>
       </c>
+      <c r="HL32" t="n">
+        <v>2</v>
+      </c>
+      <c r="HM32" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="HN32" t="n">
+        <v>4.15</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22165,6 +22453,15 @@
       <c r="HK33" t="n">
         <v>3.69</v>
       </c>
+      <c r="HL33" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="HM33" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="HN33" t="n">
+        <v>6.75</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -22826,6 +23123,15 @@
       <c r="HK34" t="n">
         <v>43.8</v>
       </c>
+      <c r="HL34" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="HM34" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="HN34" t="n">
+        <v>22.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23487,6 +23793,15 @@
       <c r="HK35" t="n">
         <v>27.1</v>
       </c>
+      <c r="HL35" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="HM35" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="HN35" t="n">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24148,6 +24463,15 @@
       <c r="HK36" t="n">
         <v>186.1</v>
       </c>
+      <c r="HL36" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="HM36" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="HN36" t="n">
+        <v>186.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -24809,6 +25133,15 @@
       <c r="HK37" t="n">
         <v>85.3</v>
       </c>
+      <c r="HL37" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="HM37" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="HN37" t="n">
+        <v>85.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25470,6 +25803,15 @@
       <c r="HK38" t="n">
         <v>25.16</v>
       </c>
+      <c r="HL38" t="n">
+        <v>25.24</v>
+      </c>
+      <c r="HM38" t="n">
+        <v>25.24</v>
+      </c>
+      <c r="HN38" t="n">
+        <v>25.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26131,6 +26473,15 @@
       <c r="HK39" t="n">
         <v>78.8</v>
       </c>
+      <c r="HL39" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="HM39" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="HN39" t="n">
+        <v>91.59999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26792,6 +27143,15 @@
       <c r="HK40" t="n">
         <v>12</v>
       </c>
+      <c r="HL40" t="n">
+        <v>11</v>
+      </c>
+      <c r="HM40" t="n">
+        <v>10</v>
+      </c>
+      <c r="HN40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27453,6 +27813,15 @@
       <c r="HK41" t="n">
         <v>4</v>
       </c>
+      <c r="HL41" t="n">
+        <v>4</v>
+      </c>
+      <c r="HM41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HN41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28114,6 +28483,15 @@
       <c r="HK42" t="n">
         <v>1</v>
       </c>
+      <c r="HL42" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM42" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -28775,6 +29153,15 @@
       <c r="HK43" t="n">
         <v>5</v>
       </c>
+      <c r="HL43" t="n">
+        <v>6</v>
+      </c>
+      <c r="HM43" t="n">
+        <v>6</v>
+      </c>
+      <c r="HN43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29436,6 +29823,15 @@
       <c r="HK44" t="n">
         <v>113</v>
       </c>
+      <c r="HL44" t="n">
+        <v>103</v>
+      </c>
+      <c r="HM44" t="n">
+        <v>112</v>
+      </c>
+      <c r="HN44" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30097,6 +30493,15 @@
       <c r="HK45" t="n">
         <v>193</v>
       </c>
+      <c r="HL45" t="n">
+        <v>182</v>
+      </c>
+      <c r="HM45" t="n">
+        <v>124</v>
+      </c>
+      <c r="HN45" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -30758,6 +31163,15 @@
       <c r="HK46" t="n">
         <v>238</v>
       </c>
+      <c r="HL46" t="n">
+        <v>225</v>
+      </c>
+      <c r="HM46" t="n">
+        <v>162</v>
+      </c>
+      <c r="HN46" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31419,6 +31833,15 @@
       <c r="HK47" t="n">
         <v>77</v>
       </c>
+      <c r="HL47" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="HM47" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="HN47" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32080,6 +32503,15 @@
       <c r="HK48" t="n">
         <v>58</v>
       </c>
+      <c r="HL48" t="n">
+        <v>57</v>
+      </c>
+      <c r="HM48" t="n">
+        <v>52</v>
+      </c>
+      <c r="HN48" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -32741,6 +33173,15 @@
       <c r="HK49" t="n">
         <v>9</v>
       </c>
+      <c r="HL49" t="n">
+        <v>13</v>
+      </c>
+      <c r="HM49" t="n">
+        <v>7</v>
+      </c>
+      <c r="HN49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33402,6 +33843,15 @@
       <c r="HK50" t="n">
         <v>12</v>
       </c>
+      <c r="HL50" t="n">
+        <v>12</v>
+      </c>
+      <c r="HM50" t="n">
+        <v>5</v>
+      </c>
+      <c r="HN50" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34063,6 +34513,15 @@
       <c r="HK51" t="n">
         <v>23</v>
       </c>
+      <c r="HL51" t="n">
+        <v>20</v>
+      </c>
+      <c r="HM51" t="n">
+        <v>22</v>
+      </c>
+      <c r="HN51" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -34724,6 +35183,15 @@
       <c r="HK52" t="n">
         <v>27</v>
       </c>
+      <c r="HL52" t="n">
+        <v>35</v>
+      </c>
+      <c r="HM52" t="n">
+        <v>39</v>
+      </c>
+      <c r="HN52" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35385,6 +35853,15 @@
       <c r="HK53" t="n">
         <v>42</v>
       </c>
+      <c r="HL53" t="n">
+        <v>24</v>
+      </c>
+      <c r="HM53" t="n">
+        <v>36</v>
+      </c>
+      <c r="HN53" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36046,6 +36523,15 @@
       <c r="HK54" t="n">
         <v>4</v>
       </c>
+      <c r="HL54" t="n">
+        <v>5</v>
+      </c>
+      <c r="HM54" t="n">
+        <v>3</v>
+      </c>
+      <c r="HN54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -36707,6 +37193,15 @@
       <c r="HK55" t="n">
         <v>10</v>
       </c>
+      <c r="HL55" t="n">
+        <v>9</v>
+      </c>
+      <c r="HM55" t="n">
+        <v>6</v>
+      </c>
+      <c r="HN55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37368,6 +37863,15 @@
       <c r="HK56" t="n">
         <v>76.90000000000001</v>
       </c>
+      <c r="HL56" t="n">
+        <v>75</v>
+      </c>
+      <c r="HM56" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="HN56" t="n">
+        <v>62.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38029,6 +38533,15 @@
       <c r="HK57" t="n">
         <v>141</v>
       </c>
+      <c r="HL57" t="n">
+        <v>211</v>
+      </c>
+      <c r="HM57" t="n">
+        <v>170</v>
+      </c>
+      <c r="HN57" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -38690,6 +39203,15 @@
       <c r="HK58" t="n">
         <v>137</v>
       </c>
+      <c r="HL58" t="n">
+        <v>87</v>
+      </c>
+      <c r="HM58" t="n">
+        <v>151</v>
+      </c>
+      <c r="HN58" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -39351,6 +39873,15 @@
       <c r="HK59" t="n">
         <v>278</v>
       </c>
+      <c r="HL59" t="n">
+        <v>298</v>
+      </c>
+      <c r="HM59" t="n">
+        <v>321</v>
+      </c>
+      <c r="HN59" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40012,6 +40543,15 @@
       <c r="HK60" t="n">
         <v>1.03</v>
       </c>
+      <c r="HL60" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="HM60" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="HN60" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -40673,6 +41213,15 @@
       <c r="HK61" t="n">
         <v>49</v>
       </c>
+      <c r="HL61" t="n">
+        <v>119</v>
+      </c>
+      <c r="HM61" t="n">
+        <v>50</v>
+      </c>
+      <c r="HN61" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -41334,6 +41883,15 @@
       <c r="HK62" t="n">
         <v>36</v>
       </c>
+      <c r="HL62" t="n">
+        <v>34</v>
+      </c>
+      <c r="HM62" t="n">
+        <v>69</v>
+      </c>
+      <c r="HN62" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41995,6 +42553,15 @@
       <c r="HK63" t="n">
         <v>17</v>
       </c>
+      <c r="HL63" t="n">
+        <v>23</v>
+      </c>
+      <c r="HM63" t="n">
+        <v>31</v>
+      </c>
+      <c r="HN63" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -42656,6 +43223,15 @@
       <c r="HK64" t="n">
         <v>21</v>
       </c>
+      <c r="HL64" t="n">
+        <v>18</v>
+      </c>
+      <c r="HM64" t="n">
+        <v>22</v>
+      </c>
+      <c r="HN64" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -43317,6 +43893,15 @@
       <c r="HK65" t="n">
         <v>25</v>
       </c>
+      <c r="HL65" t="n">
+        <v>11</v>
+      </c>
+      <c r="HM65" t="n">
+        <v>11</v>
+      </c>
+      <c r="HN65" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -43978,6 +44563,15 @@
       <c r="HK66" t="n">
         <v>7</v>
       </c>
+      <c r="HL66" t="n">
+        <v>4</v>
+      </c>
+      <c r="HM66" t="n">
+        <v>13</v>
+      </c>
+      <c r="HN66" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -44639,6 +45233,15 @@
       <c r="HK67" t="n">
         <v>6</v>
       </c>
+      <c r="HL67" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM67" t="n">
+        <v>9</v>
+      </c>
+      <c r="HN67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45300,6 +45903,15 @@
       <c r="HK68" t="n">
         <v>6</v>
       </c>
+      <c r="HL68" t="n">
+        <v>16</v>
+      </c>
+      <c r="HM68" t="n">
+        <v>12</v>
+      </c>
+      <c r="HN68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -45961,6 +46573,15 @@
       <c r="HK69" t="n">
         <v>1</v>
       </c>
+      <c r="HL69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM69" t="n">
+        <v>3</v>
+      </c>
+      <c r="HN69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -46622,6 +47243,15 @@
       <c r="HK70" t="n">
         <v>14</v>
       </c>
+      <c r="HL70" t="n">
+        <v>21</v>
+      </c>
+      <c r="HM70" t="n">
+        <v>28</v>
+      </c>
+      <c r="HN70" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -47283,6 +47913,15 @@
       <c r="HK71" t="n">
         <v>50</v>
       </c>
+      <c r="HL71" t="n">
+        <v>19</v>
+      </c>
+      <c r="HM71" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="HN71" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -47944,6 +48583,15 @@
       <c r="HK72" t="n">
         <v>39.71</v>
       </c>
+      <c r="HL72" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="HM72" t="n">
+        <v>24.69</v>
+      </c>
+      <c r="HN72" t="n">
+        <v>64.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -48605,6 +49253,15 @@
       <c r="HK73" t="n">
         <v>19.86</v>
       </c>
+      <c r="HL73" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="HM73" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="HN73" t="n">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -49266,6 +49923,15 @@
       <c r="HK74" t="n">
         <v>25</v>
       </c>
+      <c r="HL74" t="n">
+        <v>28</v>
+      </c>
+      <c r="HM74" t="n">
+        <v>40</v>
+      </c>
+      <c r="HN74" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -49927,6 +50593,15 @@
       <c r="HK75" t="n">
         <v>55</v>
       </c>
+      <c r="HL75" t="n">
+        <v>34</v>
+      </c>
+      <c r="HM75" t="n">
+        <v>45</v>
+      </c>
+      <c r="HN75" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -50588,6 +51263,15 @@
       <c r="HK76" t="n">
         <v>33</v>
       </c>
+      <c r="HL76" t="n">
+        <v>31</v>
+      </c>
+      <c r="HM76" t="n">
+        <v>13</v>
+      </c>
+      <c r="HN76" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -51249,6 +51933,15 @@
       <c r="HK77" t="n">
         <v>35</v>
       </c>
+      <c r="HL77" t="n">
+        <v>40</v>
+      </c>
+      <c r="HM77" t="n">
+        <v>55</v>
+      </c>
+      <c r="HN77" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -51910,6 +52603,15 @@
       <c r="HK78" t="n">
         <v>2.5</v>
       </c>
+      <c r="HL78" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="HM78" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="HN78" t="n">
+        <v>2.42</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -52571,6 +53273,15 @@
       <c r="HK79" t="n">
         <v>5</v>
       </c>
+      <c r="HL79" t="n">
+        <v>10</v>
+      </c>
+      <c r="HM79" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="HN79" t="n">
+        <v>7.25</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -53232,6 +53943,15 @@
       <c r="HK80" t="n">
         <v>37.1</v>
       </c>
+      <c r="HL80" t="n">
+        <v>50</v>
+      </c>
+      <c r="HM80" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="HN80" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -53893,6 +54613,15 @@
       <c r="HK81" t="n">
         <v>20</v>
       </c>
+      <c r="HL81" t="n">
+        <v>10</v>
+      </c>
+      <c r="HM81" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="HN81" t="n">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -54554,6 +55283,15 @@
       <c r="HK82" t="n">
         <v>187.3</v>
       </c>
+      <c r="HL82" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="HM82" t="n">
+        <v>188</v>
+      </c>
+      <c r="HN82" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -55215,6 +55953,15 @@
       <c r="HK83" t="n">
         <v>85.3</v>
       </c>
+      <c r="HL83" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="HM83" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="HN83" t="n">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -55876,6 +56623,15 @@
       <c r="HK84" t="n">
         <v>25.74</v>
       </c>
+      <c r="HL84" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="HM84" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="HN84" t="n">
+        <v>23.24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -56537,6 +57293,15 @@
       <c r="HK85" t="n">
         <v>95.7</v>
       </c>
+      <c r="HL85" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="HM85" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="HN85" t="n">
+        <v>57.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -57198,6 +57963,15 @@
       <c r="HK86" t="n">
         <v>7</v>
       </c>
+      <c r="HL86" t="n">
+        <v>8</v>
+      </c>
+      <c r="HM86" t="n">
+        <v>7</v>
+      </c>
+      <c r="HN86" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -57859,6 +58633,15 @@
       <c r="HK87" t="n">
         <v>4</v>
       </c>
+      <c r="HL87" t="n">
+        <v>7</v>
+      </c>
+      <c r="HM87" t="n">
+        <v>5</v>
+      </c>
+      <c r="HN87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -58520,6 +59303,15 @@
       <c r="HK88" t="n">
         <v>7</v>
       </c>
+      <c r="HL88" t="n">
+        <v>4</v>
+      </c>
+      <c r="HM88" t="n">
+        <v>4</v>
+      </c>
+      <c r="HN88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -59181,6 +59973,15 @@
       <c r="HK89" t="n">
         <v>4</v>
       </c>
+      <c r="HL89" t="n">
+        <v>3</v>
+      </c>
+      <c r="HM89" t="n">
+        <v>6</v>
+      </c>
+      <c r="HN89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -59842,6 +60643,15 @@
       <c r="HK90" t="n">
         <v>107</v>
       </c>
+      <c r="HL90" t="n">
+        <v>97</v>
+      </c>
+      <c r="HM90" t="n">
+        <v>155</v>
+      </c>
+      <c r="HN90" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -60503,6 +61313,15 @@
       <c r="HK91" t="n">
         <v>171</v>
       </c>
+      <c r="HL91" t="n">
+        <v>199</v>
+      </c>
+      <c r="HM91" t="n">
+        <v>176</v>
+      </c>
+      <c r="HN91" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -61164,6 +61983,15 @@
       <c r="HK92" t="n">
         <v>194</v>
       </c>
+      <c r="HL92" t="n">
+        <v>217</v>
+      </c>
+      <c r="HM92" t="n">
+        <v>229</v>
+      </c>
+      <c r="HN92" t="n">
+        <v>173</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -61825,6 +62653,15 @@
       <c r="HK93" t="n">
         <v>69.8</v>
       </c>
+      <c r="HL93" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="HM93" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="HN93" t="n">
+        <v>67.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -62486,6 +63323,15 @@
       <c r="HK94" t="n">
         <v>55</v>
       </c>
+      <c r="HL94" t="n">
+        <v>34</v>
+      </c>
+      <c r="HM94" t="n">
+        <v>45</v>
+      </c>
+      <c r="HN94" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -63147,6 +63993,15 @@
       <c r="HK95" t="n">
         <v>7</v>
       </c>
+      <c r="HL95" t="n">
+        <v>8</v>
+      </c>
+      <c r="HM95" t="n">
+        <v>12</v>
+      </c>
+      <c r="HN95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -63808,6 +64663,15 @@
       <c r="HK96" t="n">
         <v>11</v>
       </c>
+      <c r="HL96" t="n">
+        <v>8</v>
+      </c>
+      <c r="HM96" t="n">
+        <v>12</v>
+      </c>
+      <c r="HN96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -64469,6 +65333,15 @@
       <c r="HK97" t="n">
         <v>25</v>
       </c>
+      <c r="HL97" t="n">
+        <v>28</v>
+      </c>
+      <c r="HM97" t="n">
+        <v>40</v>
+      </c>
+      <c r="HN97" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -65130,6 +66003,15 @@
       <c r="HK98" t="n">
         <v>33</v>
       </c>
+      <c r="HL98" t="n">
+        <v>31</v>
+      </c>
+      <c r="HM98" t="n">
+        <v>13</v>
+      </c>
+      <c r="HN98" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -65791,6 +66673,15 @@
       <c r="HK99" t="n">
         <v>41</v>
       </c>
+      <c r="HL99" t="n">
+        <v>33</v>
+      </c>
+      <c r="HM99" t="n">
+        <v>38</v>
+      </c>
+      <c r="HN99" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -66452,6 +67343,15 @@
       <c r="HK100" t="n">
         <v>1</v>
       </c>
+      <c r="HL100" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM100" t="n">
+        <v>2</v>
+      </c>
+      <c r="HN100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -67113,6 +68013,15 @@
       <c r="HK101" t="n">
         <v>6</v>
       </c>
+      <c r="HL101" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM101" t="n">
+        <v>9</v>
+      </c>
+      <c r="HN101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -67774,8 +68683,17 @@
       <c r="HK102" t="n">
         <v>85.7</v>
       </c>
+      <c r="HL102" t="n">
+        <v>25</v>
+      </c>
+      <c r="HM102" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="HN102" t="n">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Richmond_stats.xlsx
+++ b/Richmond_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HN102"/>
+  <dimension ref="A1:HU102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,6 +1022,27 @@
       <c r="HN1" t="n">
         <v>10268</v>
       </c>
+      <c r="HO1" t="n">
+        <v>10272</v>
+      </c>
+      <c r="HP1" t="n">
+        <v>10279</v>
+      </c>
+      <c r="HQ1" t="n">
+        <v>10288</v>
+      </c>
+      <c r="HR1" t="n">
+        <v>10301</v>
+      </c>
+      <c r="HS1" t="n">
+        <v>10312</v>
+      </c>
+      <c r="HT1" t="n">
+        <v>10319</v>
+      </c>
+      <c r="HU1" t="n">
+        <v>10322</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1692,6 +1713,27 @@
       <c r="HN2" t="n">
         <v>2020</v>
       </c>
+      <c r="HO2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2362,6 +2404,27 @@
       <c r="HN3" t="n">
         <v>12</v>
       </c>
+      <c r="HO3" t="n">
+        <v>13</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>14</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>17</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>18</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>25</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3032,6 +3095,27 @@
       <c r="HN4" t="n">
         <v>0</v>
       </c>
+      <c r="HO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3702,6 +3786,27 @@
       <c r="HN5" t="n">
         <v>0</v>
       </c>
+      <c r="HO5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4372,6 +4477,27 @@
       <c r="HN6" t="n">
         <v>53</v>
       </c>
+      <c r="HO6" t="n">
+        <v>73</v>
+      </c>
+      <c r="HP6" t="n">
+        <v>88</v>
+      </c>
+      <c r="HQ6" t="n">
+        <v>56</v>
+      </c>
+      <c r="HR6" t="n">
+        <v>57</v>
+      </c>
+      <c r="HS6" t="n">
+        <v>77</v>
+      </c>
+      <c r="HT6" t="n">
+        <v>54</v>
+      </c>
+      <c r="HU6" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5042,6 +5168,27 @@
       <c r="HN7" t="n">
         <v>32</v>
       </c>
+      <c r="HO7" t="n">
+        <v>61</v>
+      </c>
+      <c r="HP7" t="n">
+        <v>61</v>
+      </c>
+      <c r="HQ7" t="n">
+        <v>29</v>
+      </c>
+      <c r="HR7" t="n">
+        <v>31</v>
+      </c>
+      <c r="HS7" t="n">
+        <v>33</v>
+      </c>
+      <c r="HT7" t="n">
+        <v>69</v>
+      </c>
+      <c r="HU7" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5712,6 +5859,27 @@
       <c r="HN8" t="n">
         <v>21</v>
       </c>
+      <c r="HO8" t="n">
+        <v>12</v>
+      </c>
+      <c r="HP8" t="n">
+        <v>27</v>
+      </c>
+      <c r="HQ8" t="n">
+        <v>27</v>
+      </c>
+      <c r="HR8" t="n">
+        <v>26</v>
+      </c>
+      <c r="HS8" t="n">
+        <v>44</v>
+      </c>
+      <c r="HT8" t="n">
+        <v>-15</v>
+      </c>
+      <c r="HU8" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6382,6 +6550,27 @@
       <c r="HN9" t="n">
         <v>1</v>
       </c>
+      <c r="HO9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7052,6 +7241,27 @@
       <c r="HN10" t="n">
         <v>8</v>
       </c>
+      <c r="HO10" t="n">
+        <v>5</v>
+      </c>
+      <c r="HP10" t="n">
+        <v>17</v>
+      </c>
+      <c r="HQ10" t="n">
+        <v>6</v>
+      </c>
+      <c r="HR10" t="n">
+        <v>7</v>
+      </c>
+      <c r="HS10" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT10" t="n">
+        <v>2</v>
+      </c>
+      <c r="HU10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7722,6 +7932,27 @@
       <c r="HN11" t="n">
         <v>175</v>
       </c>
+      <c r="HO11" t="n">
+        <v>177</v>
+      </c>
+      <c r="HP11" t="n">
+        <v>172</v>
+      </c>
+      <c r="HQ11" t="n">
+        <v>172</v>
+      </c>
+      <c r="HR11" t="n">
+        <v>166</v>
+      </c>
+      <c r="HS11" t="n">
+        <v>177</v>
+      </c>
+      <c r="HT11" t="n">
+        <v>161</v>
+      </c>
+      <c r="HU11" t="n">
+        <v>184</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8392,6 +8623,27 @@
       <c r="HN12" t="n">
         <v>112</v>
       </c>
+      <c r="HO12" t="n">
+        <v>142</v>
+      </c>
+      <c r="HP12" t="n">
+        <v>121</v>
+      </c>
+      <c r="HQ12" t="n">
+        <v>109</v>
+      </c>
+      <c r="HR12" t="n">
+        <v>107</v>
+      </c>
+      <c r="HS12" t="n">
+        <v>119</v>
+      </c>
+      <c r="HT12" t="n">
+        <v>128</v>
+      </c>
+      <c r="HU12" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9062,6 +9314,27 @@
       <c r="HN13" t="n">
         <v>287</v>
       </c>
+      <c r="HO13" t="n">
+        <v>319</v>
+      </c>
+      <c r="HP13" t="n">
+        <v>293</v>
+      </c>
+      <c r="HQ13" t="n">
+        <v>281</v>
+      </c>
+      <c r="HR13" t="n">
+        <v>273</v>
+      </c>
+      <c r="HS13" t="n">
+        <v>296</v>
+      </c>
+      <c r="HT13" t="n">
+        <v>289</v>
+      </c>
+      <c r="HU13" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9732,6 +10005,27 @@
       <c r="HN14" t="n">
         <v>1.56</v>
       </c>
+      <c r="HO14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="HP14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="HQ14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="HR14" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="HS14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="HT14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="HU14" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10402,6 +10696,27 @@
       <c r="HN15" t="n">
         <v>86</v>
       </c>
+      <c r="HO15" t="n">
+        <v>75</v>
+      </c>
+      <c r="HP15" t="n">
+        <v>69</v>
+      </c>
+      <c r="HQ15" t="n">
+        <v>80</v>
+      </c>
+      <c r="HR15" t="n">
+        <v>73</v>
+      </c>
+      <c r="HS15" t="n">
+        <v>77</v>
+      </c>
+      <c r="HT15" t="n">
+        <v>53</v>
+      </c>
+      <c r="HU15" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11072,6 +11387,27 @@
       <c r="HN16" t="n">
         <v>59</v>
       </c>
+      <c r="HO16" t="n">
+        <v>36</v>
+      </c>
+      <c r="HP16" t="n">
+        <v>54</v>
+      </c>
+      <c r="HQ16" t="n">
+        <v>37</v>
+      </c>
+      <c r="HR16" t="n">
+        <v>49</v>
+      </c>
+      <c r="HS16" t="n">
+        <v>61</v>
+      </c>
+      <c r="HT16" t="n">
+        <v>53</v>
+      </c>
+      <c r="HU16" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11742,6 +12078,27 @@
       <c r="HN17" t="n">
         <v>26</v>
       </c>
+      <c r="HO17" t="n">
+        <v>27</v>
+      </c>
+      <c r="HP17" t="n">
+        <v>31</v>
+      </c>
+      <c r="HQ17" t="n">
+        <v>32</v>
+      </c>
+      <c r="HR17" t="n">
+        <v>23</v>
+      </c>
+      <c r="HS17" t="n">
+        <v>28</v>
+      </c>
+      <c r="HT17" t="n">
+        <v>20</v>
+      </c>
+      <c r="HU17" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12412,6 +12769,27 @@
       <c r="HN18" t="n">
         <v>11</v>
       </c>
+      <c r="HO18" t="n">
+        <v>13</v>
+      </c>
+      <c r="HP18" t="n">
+        <v>14</v>
+      </c>
+      <c r="HQ18" t="n">
+        <v>13</v>
+      </c>
+      <c r="HR18" t="n">
+        <v>11</v>
+      </c>
+      <c r="HS18" t="n">
+        <v>8</v>
+      </c>
+      <c r="HT18" t="n">
+        <v>11</v>
+      </c>
+      <c r="HU18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13082,6 +13460,27 @@
       <c r="HN19" t="n">
         <v>14</v>
       </c>
+      <c r="HO19" t="n">
+        <v>12</v>
+      </c>
+      <c r="HP19" t="n">
+        <v>22</v>
+      </c>
+      <c r="HQ19" t="n">
+        <v>18</v>
+      </c>
+      <c r="HR19" t="n">
+        <v>17</v>
+      </c>
+      <c r="HS19" t="n">
+        <v>17</v>
+      </c>
+      <c r="HT19" t="n">
+        <v>17</v>
+      </c>
+      <c r="HU19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13752,6 +14151,27 @@
       <c r="HN20" t="n">
         <v>8</v>
       </c>
+      <c r="HO20" t="n">
+        <v>10</v>
+      </c>
+      <c r="HP20" t="n">
+        <v>14</v>
+      </c>
+      <c r="HQ20" t="n">
+        <v>8</v>
+      </c>
+      <c r="HR20" t="n">
+        <v>7</v>
+      </c>
+      <c r="HS20" t="n">
+        <v>12</v>
+      </c>
+      <c r="HT20" t="n">
+        <v>8</v>
+      </c>
+      <c r="HU20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14422,6 +14842,27 @@
       <c r="HN21" t="n">
         <v>5</v>
       </c>
+      <c r="HO21" t="n">
+        <v>7</v>
+      </c>
+      <c r="HP21" t="n">
+        <v>7</v>
+      </c>
+      <c r="HQ21" t="n">
+        <v>5</v>
+      </c>
+      <c r="HR21" t="n">
+        <v>5</v>
+      </c>
+      <c r="HS21" t="n">
+        <v>10</v>
+      </c>
+      <c r="HT21" t="n">
+        <v>8</v>
+      </c>
+      <c r="HU21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15092,6 +15533,27 @@
       <c r="HN22" t="n">
         <v>4</v>
       </c>
+      <c r="HO22" t="n">
+        <v>10</v>
+      </c>
+      <c r="HP22" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ22" t="n">
+        <v>4</v>
+      </c>
+      <c r="HR22" t="n">
+        <v>13</v>
+      </c>
+      <c r="HS22" t="n">
+        <v>3</v>
+      </c>
+      <c r="HT22" t="n">
+        <v>4</v>
+      </c>
+      <c r="HU22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15762,6 +16224,27 @@
       <c r="HN23" t="n">
         <v>1</v>
       </c>
+      <c r="HO23" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP23" t="n">
+        <v>3</v>
+      </c>
+      <c r="HQ23" t="n">
+        <v>4</v>
+      </c>
+      <c r="HR23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HS23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HT23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HU23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16432,6 +16915,27 @@
       <c r="HN24" t="n">
         <v>13</v>
       </c>
+      <c r="HO24" t="n">
+        <v>23</v>
+      </c>
+      <c r="HP24" t="n">
+        <v>18</v>
+      </c>
+      <c r="HQ24" t="n">
+        <v>16</v>
+      </c>
+      <c r="HR24" t="n">
+        <v>22</v>
+      </c>
+      <c r="HS24" t="n">
+        <v>17</v>
+      </c>
+      <c r="HT24" t="n">
+        <v>14</v>
+      </c>
+      <c r="HU24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17102,6 +17606,27 @@
       <c r="HN25" t="n">
         <v>61.5</v>
       </c>
+      <c r="HO25" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="HP25" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="HQ25" t="n">
+        <v>50</v>
+      </c>
+      <c r="HR25" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="HS25" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="HT25" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="HU25" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17772,6 +18297,27 @@
       <c r="HN26" t="n">
         <v>35.88</v>
       </c>
+      <c r="HO26" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="HP26" t="n">
+        <v>20.93</v>
+      </c>
+      <c r="HQ26" t="n">
+        <v>35.12</v>
+      </c>
+      <c r="HR26" t="n">
+        <v>39</v>
+      </c>
+      <c r="HS26" t="n">
+        <v>24.67</v>
+      </c>
+      <c r="HT26" t="n">
+        <v>36.12</v>
+      </c>
+      <c r="HU26" t="n">
+        <v>27.42</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18442,6 +18988,27 @@
       <c r="HN27" t="n">
         <v>22.08</v>
       </c>
+      <c r="HO27" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="HP27" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="HQ27" t="n">
+        <v>17.56</v>
+      </c>
+      <c r="HR27" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="HS27" t="n">
+        <v>17.41</v>
+      </c>
+      <c r="HT27" t="n">
+        <v>20.64</v>
+      </c>
+      <c r="HU27" t="n">
+        <v>16.45</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19112,6 +19679,27 @@
       <c r="HN28" t="n">
         <v>27</v>
       </c>
+      <c r="HO28" t="n">
+        <v>27</v>
+      </c>
+      <c r="HP28" t="n">
+        <v>29</v>
+      </c>
+      <c r="HQ28" t="n">
+        <v>19</v>
+      </c>
+      <c r="HR28" t="n">
+        <v>16</v>
+      </c>
+      <c r="HS28" t="n">
+        <v>27</v>
+      </c>
+      <c r="HT28" t="n">
+        <v>37</v>
+      </c>
+      <c r="HU28" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19782,6 +20370,27 @@
       <c r="HN29" t="n">
         <v>46</v>
       </c>
+      <c r="HO29" t="n">
+        <v>56</v>
+      </c>
+      <c r="HP29" t="n">
+        <v>57</v>
+      </c>
+      <c r="HQ29" t="n">
+        <v>42</v>
+      </c>
+      <c r="HR29" t="n">
+        <v>47</v>
+      </c>
+      <c r="HS29" t="n">
+        <v>49</v>
+      </c>
+      <c r="HT29" t="n">
+        <v>59</v>
+      </c>
+      <c r="HU29" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20452,6 +21061,27 @@
       <c r="HN30" t="n">
         <v>25</v>
       </c>
+      <c r="HO30" t="n">
+        <v>14</v>
+      </c>
+      <c r="HP30" t="n">
+        <v>35</v>
+      </c>
+      <c r="HQ30" t="n">
+        <v>33</v>
+      </c>
+      <c r="HR30" t="n">
+        <v>36</v>
+      </c>
+      <c r="HS30" t="n">
+        <v>29</v>
+      </c>
+      <c r="HT30" t="n">
+        <v>34</v>
+      </c>
+      <c r="HU30" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21122,6 +21752,27 @@
       <c r="HN31" t="n">
         <v>54</v>
       </c>
+      <c r="HO31" t="n">
+        <v>66</v>
+      </c>
+      <c r="HP31" t="n">
+        <v>52</v>
+      </c>
+      <c r="HQ31" t="n">
+        <v>43</v>
+      </c>
+      <c r="HR31" t="n">
+        <v>42</v>
+      </c>
+      <c r="HS31" t="n">
+        <v>57</v>
+      </c>
+      <c r="HT31" t="n">
+        <v>49</v>
+      </c>
+      <c r="HU31" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21792,6 +22443,27 @@
       <c r="HN32" t="n">
         <v>4.15</v>
       </c>
+      <c r="HO32" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="HP32" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="HQ32" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="HR32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="HS32" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="HT32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="HU32" t="n">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22462,6 +23134,27 @@
       <c r="HN33" t="n">
         <v>6.75</v>
       </c>
+      <c r="HO33" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="HP33" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="HQ33" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="HR33" t="n">
+        <v>6</v>
+      </c>
+      <c r="HS33" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="HT33" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="HU33" t="n">
+        <v>4.33</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23132,6 +23825,27 @@
       <c r="HN34" t="n">
         <v>22.2</v>
       </c>
+      <c r="HO34" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="HP34" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="HQ34" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="HR34" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="HS34" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="HT34" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="HU34" t="n">
+        <v>34.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -23802,6 +24516,27 @@
       <c r="HN35" t="n">
         <v>14.8</v>
       </c>
+      <c r="HO35" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="HP35" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="HQ35" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="HR35" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="HS35" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="HT35" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="HU35" t="n">
+        <v>23.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24472,6 +25207,27 @@
       <c r="HN36" t="n">
         <v>186.3</v>
       </c>
+      <c r="HO36" t="n">
+        <v>185.7</v>
+      </c>
+      <c r="HP36" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="HQ36" t="n">
+        <v>185.7</v>
+      </c>
+      <c r="HR36" t="n">
+        <v>186</v>
+      </c>
+      <c r="HS36" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="HT36" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="HU36" t="n">
+        <v>185.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25142,6 +25898,27 @@
       <c r="HN37" t="n">
         <v>85.5</v>
       </c>
+      <c r="HO37" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="HP37" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="HQ37" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="HR37" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="HS37" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="HT37" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="HU37" t="n">
+        <v>86.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -25812,6 +26589,27 @@
       <c r="HN38" t="n">
         <v>25.58</v>
       </c>
+      <c r="HO38" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HP38" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="HQ38" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="HR38" t="n">
+        <v>26</v>
+      </c>
+      <c r="HS38" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="HT38" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="HU38" t="n">
+        <v>27.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26482,6 +27280,27 @@
       <c r="HN39" t="n">
         <v>91.59999999999999</v>
       </c>
+      <c r="HO39" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="HP39" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="HQ39" t="n">
+        <v>95</v>
+      </c>
+      <c r="HR39" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="HS39" t="n">
+        <v>118.6</v>
+      </c>
+      <c r="HT39" t="n">
+        <v>120.7</v>
+      </c>
+      <c r="HU39" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27152,6 +27971,27 @@
       <c r="HN40" t="n">
         <v>10</v>
       </c>
+      <c r="HO40" t="n">
+        <v>10</v>
+      </c>
+      <c r="HP40" t="n">
+        <v>9</v>
+      </c>
+      <c r="HQ40" t="n">
+        <v>10</v>
+      </c>
+      <c r="HR40" t="n">
+        <v>8</v>
+      </c>
+      <c r="HS40" t="n">
+        <v>6</v>
+      </c>
+      <c r="HT40" t="n">
+        <v>6</v>
+      </c>
+      <c r="HU40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -27822,6 +28662,27 @@
       <c r="HN41" t="n">
         <v>5</v>
       </c>
+      <c r="HO41" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP41" t="n">
+        <v>4</v>
+      </c>
+      <c r="HQ41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HR41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HS41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HT41" t="n">
+        <v>5</v>
+      </c>
+      <c r="HU41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28492,6 +29353,27 @@
       <c r="HN42" t="n">
         <v>1</v>
       </c>
+      <c r="HO42" t="n">
+        <v>2</v>
+      </c>
+      <c r="HP42" t="n">
+        <v>2</v>
+      </c>
+      <c r="HQ42" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR42" t="n">
+        <v>2</v>
+      </c>
+      <c r="HS42" t="n">
+        <v>3</v>
+      </c>
+      <c r="HT42" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29162,6 +30044,27 @@
       <c r="HN43" t="n">
         <v>6</v>
       </c>
+      <c r="HO43" t="n">
+        <v>7</v>
+      </c>
+      <c r="HP43" t="n">
+        <v>7</v>
+      </c>
+      <c r="HQ43" t="n">
+        <v>6</v>
+      </c>
+      <c r="HR43" t="n">
+        <v>7</v>
+      </c>
+      <c r="HS43" t="n">
+        <v>8</v>
+      </c>
+      <c r="HT43" t="n">
+        <v>8</v>
+      </c>
+      <c r="HU43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -29832,6 +30735,27 @@
       <c r="HN44" t="n">
         <v>120</v>
       </c>
+      <c r="HO44" t="n">
+        <v>129</v>
+      </c>
+      <c r="HP44" t="n">
+        <v>123</v>
+      </c>
+      <c r="HQ44" t="n">
+        <v>108</v>
+      </c>
+      <c r="HR44" t="n">
+        <v>103</v>
+      </c>
+      <c r="HS44" t="n">
+        <v>122</v>
+      </c>
+      <c r="HT44" t="n">
+        <v>132</v>
+      </c>
+      <c r="HU44" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30502,6 +31426,27 @@
       <c r="HN45" t="n">
         <v>166</v>
       </c>
+      <c r="HO45" t="n">
+        <v>195</v>
+      </c>
+      <c r="HP45" t="n">
+        <v>167</v>
+      </c>
+      <c r="HQ45" t="n">
+        <v>170</v>
+      </c>
+      <c r="HR45" t="n">
+        <v>167</v>
+      </c>
+      <c r="HS45" t="n">
+        <v>171</v>
+      </c>
+      <c r="HT45" t="n">
+        <v>161</v>
+      </c>
+      <c r="HU45" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31172,6 +32117,27 @@
       <c r="HN46" t="n">
         <v>201</v>
       </c>
+      <c r="HO46" t="n">
+        <v>222</v>
+      </c>
+      <c r="HP46" t="n">
+        <v>205</v>
+      </c>
+      <c r="HQ46" t="n">
+        <v>208</v>
+      </c>
+      <c r="HR46" t="n">
+        <v>193</v>
+      </c>
+      <c r="HS46" t="n">
+        <v>206</v>
+      </c>
+      <c r="HT46" t="n">
+        <v>202</v>
+      </c>
+      <c r="HU46" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31842,6 +32808,27 @@
       <c r="HN47" t="n">
         <v>70</v>
       </c>
+      <c r="HO47" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="HP47" t="n">
+        <v>70</v>
+      </c>
+      <c r="HQ47" t="n">
+        <v>74</v>
+      </c>
+      <c r="HR47" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="HS47" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="HT47" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="HU47" t="n">
+        <v>73.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32512,6 +33499,27 @@
       <c r="HN48" t="n">
         <v>46</v>
       </c>
+      <c r="HO48" t="n">
+        <v>56</v>
+      </c>
+      <c r="HP48" t="n">
+        <v>57</v>
+      </c>
+      <c r="HQ48" t="n">
+        <v>42</v>
+      </c>
+      <c r="HR48" t="n">
+        <v>47</v>
+      </c>
+      <c r="HS48" t="n">
+        <v>49</v>
+      </c>
+      <c r="HT48" t="n">
+        <v>59</v>
+      </c>
+      <c r="HU48" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33182,6 +34190,27 @@
       <c r="HN49" t="n">
         <v>11</v>
       </c>
+      <c r="HO49" t="n">
+        <v>11</v>
+      </c>
+      <c r="HP49" t="n">
+        <v>10</v>
+      </c>
+      <c r="HQ49" t="n">
+        <v>9</v>
+      </c>
+      <c r="HR49" t="n">
+        <v>11</v>
+      </c>
+      <c r="HS49" t="n">
+        <v>12</v>
+      </c>
+      <c r="HT49" t="n">
+        <v>5</v>
+      </c>
+      <c r="HU49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33852,6 +34881,27 @@
       <c r="HN50" t="n">
         <v>14</v>
       </c>
+      <c r="HO50" t="n">
+        <v>9</v>
+      </c>
+      <c r="HP50" t="n">
+        <v>9</v>
+      </c>
+      <c r="HQ50" t="n">
+        <v>11</v>
+      </c>
+      <c r="HR50" t="n">
+        <v>14</v>
+      </c>
+      <c r="HS50" t="n">
+        <v>14</v>
+      </c>
+      <c r="HT50" t="n">
+        <v>5</v>
+      </c>
+      <c r="HU50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34522,6 +35572,27 @@
       <c r="HN51" t="n">
         <v>27</v>
       </c>
+      <c r="HO51" t="n">
+        <v>27</v>
+      </c>
+      <c r="HP51" t="n">
+        <v>29</v>
+      </c>
+      <c r="HQ51" t="n">
+        <v>19</v>
+      </c>
+      <c r="HR51" t="n">
+        <v>16</v>
+      </c>
+      <c r="HS51" t="n">
+        <v>27</v>
+      </c>
+      <c r="HT51" t="n">
+        <v>37</v>
+      </c>
+      <c r="HU51" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35192,6 +36263,27 @@
       <c r="HN52" t="n">
         <v>25</v>
       </c>
+      <c r="HO52" t="n">
+        <v>14</v>
+      </c>
+      <c r="HP52" t="n">
+        <v>35</v>
+      </c>
+      <c r="HQ52" t="n">
+        <v>33</v>
+      </c>
+      <c r="HR52" t="n">
+        <v>36</v>
+      </c>
+      <c r="HS52" t="n">
+        <v>29</v>
+      </c>
+      <c r="HT52" t="n">
+        <v>34</v>
+      </c>
+      <c r="HU52" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35862,6 +36954,27 @@
       <c r="HN53" t="n">
         <v>34</v>
       </c>
+      <c r="HO53" t="n">
+        <v>31</v>
+      </c>
+      <c r="HP53" t="n">
+        <v>44</v>
+      </c>
+      <c r="HQ53" t="n">
+        <v>41</v>
+      </c>
+      <c r="HR53" t="n">
+        <v>38</v>
+      </c>
+      <c r="HS53" t="n">
+        <v>54</v>
+      </c>
+      <c r="HT53" t="n">
+        <v>43</v>
+      </c>
+      <c r="HU53" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36532,6 +37645,27 @@
       <c r="HN54" t="n">
         <v>5</v>
       </c>
+      <c r="HO54" t="n">
+        <v>18</v>
+      </c>
+      <c r="HP54" t="n">
+        <v>5</v>
+      </c>
+      <c r="HQ54" t="n">
+        <v>9</v>
+      </c>
+      <c r="HR54" t="n">
+        <v>17</v>
+      </c>
+      <c r="HS54" t="n">
+        <v>8</v>
+      </c>
+      <c r="HT54" t="n">
+        <v>10</v>
+      </c>
+      <c r="HU54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37202,6 +38336,27 @@
       <c r="HN55" t="n">
         <v>5</v>
       </c>
+      <c r="HO55" t="n">
+        <v>7</v>
+      </c>
+      <c r="HP55" t="n">
+        <v>7</v>
+      </c>
+      <c r="HQ55" t="n">
+        <v>5</v>
+      </c>
+      <c r="HR55" t="n">
+        <v>5</v>
+      </c>
+      <c r="HS55" t="n">
+        <v>10</v>
+      </c>
+      <c r="HT55" t="n">
+        <v>8</v>
+      </c>
+      <c r="HU55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -37872,6 +39027,27 @@
       <c r="HN56" t="n">
         <v>62.5</v>
       </c>
+      <c r="HO56" t="n">
+        <v>70</v>
+      </c>
+      <c r="HP56" t="n">
+        <v>50</v>
+      </c>
+      <c r="HQ56" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="HR56" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="HS56" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="HT56" t="n">
+        <v>100</v>
+      </c>
+      <c r="HU56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38542,6 +39718,27 @@
       <c r="HN57" t="n">
         <v>156</v>
       </c>
+      <c r="HO57" t="n">
+        <v>168</v>
+      </c>
+      <c r="HP57" t="n">
+        <v>168</v>
+      </c>
+      <c r="HQ57" t="n">
+        <v>177</v>
+      </c>
+      <c r="HR57" t="n">
+        <v>207</v>
+      </c>
+      <c r="HS57" t="n">
+        <v>173</v>
+      </c>
+      <c r="HT57" t="n">
+        <v>178</v>
+      </c>
+      <c r="HU57" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39212,6 +40409,27 @@
       <c r="HN58" t="n">
         <v>102</v>
       </c>
+      <c r="HO58" t="n">
+        <v>144</v>
+      </c>
+      <c r="HP58" t="n">
+        <v>144</v>
+      </c>
+      <c r="HQ58" t="n">
+        <v>112</v>
+      </c>
+      <c r="HR58" t="n">
+        <v>98</v>
+      </c>
+      <c r="HS58" t="n">
+        <v>157</v>
+      </c>
+      <c r="HT58" t="n">
+        <v>86</v>
+      </c>
+      <c r="HU58" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -39882,6 +41100,27 @@
       <c r="HN59" t="n">
         <v>258</v>
       </c>
+      <c r="HO59" t="n">
+        <v>312</v>
+      </c>
+      <c r="HP59" t="n">
+        <v>312</v>
+      </c>
+      <c r="HQ59" t="n">
+        <v>289</v>
+      </c>
+      <c r="HR59" t="n">
+        <v>305</v>
+      </c>
+      <c r="HS59" t="n">
+        <v>330</v>
+      </c>
+      <c r="HT59" t="n">
+        <v>264</v>
+      </c>
+      <c r="HU59" t="n">
+        <v>308</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40552,6 +41791,27 @@
       <c r="HN60" t="n">
         <v>1.53</v>
       </c>
+      <c r="HO60" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="HP60" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="HQ60" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="HR60" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="HS60" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="HT60" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="HU60" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41222,6 +42482,27 @@
       <c r="HN61" t="n">
         <v>77</v>
       </c>
+      <c r="HO61" t="n">
+        <v>79</v>
+      </c>
+      <c r="HP61" t="n">
+        <v>46</v>
+      </c>
+      <c r="HQ61" t="n">
+        <v>76</v>
+      </c>
+      <c r="HR61" t="n">
+        <v>111</v>
+      </c>
+      <c r="HS61" t="n">
+        <v>67</v>
+      </c>
+      <c r="HT61" t="n">
+        <v>73</v>
+      </c>
+      <c r="HU61" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -41892,6 +43173,27 @@
       <c r="HN62" t="n">
         <v>46</v>
       </c>
+      <c r="HO62" t="n">
+        <v>36</v>
+      </c>
+      <c r="HP62" t="n">
+        <v>56</v>
+      </c>
+      <c r="HQ62" t="n">
+        <v>44</v>
+      </c>
+      <c r="HR62" t="n">
+        <v>43</v>
+      </c>
+      <c r="HS62" t="n">
+        <v>40</v>
+      </c>
+      <c r="HT62" t="n">
+        <v>57</v>
+      </c>
+      <c r="HU62" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42562,6 +43864,27 @@
       <c r="HN63" t="n">
         <v>25</v>
       </c>
+      <c r="HO63" t="n">
+        <v>23</v>
+      </c>
+      <c r="HP63" t="n">
+        <v>30</v>
+      </c>
+      <c r="HQ63" t="n">
+        <v>26</v>
+      </c>
+      <c r="HR63" t="n">
+        <v>20</v>
+      </c>
+      <c r="HS63" t="n">
+        <v>32</v>
+      </c>
+      <c r="HT63" t="n">
+        <v>40</v>
+      </c>
+      <c r="HU63" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43232,6 +44555,27 @@
       <c r="HN64" t="n">
         <v>14</v>
       </c>
+      <c r="HO64" t="n">
+        <v>12</v>
+      </c>
+      <c r="HP64" t="n">
+        <v>22</v>
+      </c>
+      <c r="HQ64" t="n">
+        <v>18</v>
+      </c>
+      <c r="HR64" t="n">
+        <v>17</v>
+      </c>
+      <c r="HS64" t="n">
+        <v>17</v>
+      </c>
+      <c r="HT64" t="n">
+        <v>17</v>
+      </c>
+      <c r="HU64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -43902,6 +45246,27 @@
       <c r="HN65" t="n">
         <v>11</v>
       </c>
+      <c r="HO65" t="n">
+        <v>13</v>
+      </c>
+      <c r="HP65" t="n">
+        <v>14</v>
+      </c>
+      <c r="HQ65" t="n">
+        <v>13</v>
+      </c>
+      <c r="HR65" t="n">
+        <v>11</v>
+      </c>
+      <c r="HS65" t="n">
+        <v>8</v>
+      </c>
+      <c r="HT65" t="n">
+        <v>11</v>
+      </c>
+      <c r="HU65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44572,6 +45937,27 @@
       <c r="HN66" t="n">
         <v>4</v>
       </c>
+      <c r="HO66" t="n">
+        <v>10</v>
+      </c>
+      <c r="HP66" t="n">
+        <v>9</v>
+      </c>
+      <c r="HQ66" t="n">
+        <v>4</v>
+      </c>
+      <c r="HR66" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS66" t="n">
+        <v>4</v>
+      </c>
+      <c r="HT66" t="n">
+        <v>10</v>
+      </c>
+      <c r="HU66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45242,6 +46628,27 @@
       <c r="HN67" t="n">
         <v>3</v>
       </c>
+      <c r="HO67" t="n">
+        <v>7</v>
+      </c>
+      <c r="HP67" t="n">
+        <v>6</v>
+      </c>
+      <c r="HQ67" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR67" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS67" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT67" t="n">
+        <v>5</v>
+      </c>
+      <c r="HU67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -45912,6 +47319,27 @@
       <c r="HN68" t="n">
         <v>5</v>
       </c>
+      <c r="HO68" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP68" t="n">
+        <v>5</v>
+      </c>
+      <c r="HQ68" t="n">
+        <v>5</v>
+      </c>
+      <c r="HR68" t="n">
+        <v>5</v>
+      </c>
+      <c r="HS68" t="n">
+        <v>8</v>
+      </c>
+      <c r="HT68" t="n">
+        <v>8</v>
+      </c>
+      <c r="HU68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46582,6 +48010,27 @@
       <c r="HN69" t="n">
         <v>3</v>
       </c>
+      <c r="HO69" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP69" t="n">
+        <v>2</v>
+      </c>
+      <c r="HQ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR69" t="n">
+        <v>2</v>
+      </c>
+      <c r="HS69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47252,6 +48701,27 @@
       <c r="HN70" t="n">
         <v>12</v>
       </c>
+      <c r="HO70" t="n">
+        <v>11</v>
+      </c>
+      <c r="HP70" t="n">
+        <v>16</v>
+      </c>
+      <c r="HQ70" t="n">
+        <v>9</v>
+      </c>
+      <c r="HR70" t="n">
+        <v>11</v>
+      </c>
+      <c r="HS70" t="n">
+        <v>13</v>
+      </c>
+      <c r="HT70" t="n">
+        <v>19</v>
+      </c>
+      <c r="HU70" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -47922,6 +49392,27 @@
       <c r="HN71" t="n">
         <v>33.3</v>
       </c>
+      <c r="HO71" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="HP71" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="HQ71" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="HR71" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="HS71" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="HT71" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="HU71" t="n">
+        <v>31.6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -48592,6 +50083,27 @@
       <c r="HN72" t="n">
         <v>64.5</v>
       </c>
+      <c r="HO72" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="HP72" t="n">
+        <v>34.67</v>
+      </c>
+      <c r="HQ72" t="n">
+        <v>72.25</v>
+      </c>
+      <c r="HR72" t="n">
+        <v>76.25</v>
+      </c>
+      <c r="HS72" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="HT72" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="HU72" t="n">
+        <v>51.33</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49262,6 +50774,27 @@
       <c r="HN73" t="n">
         <v>21.5</v>
       </c>
+      <c r="HO73" t="n">
+        <v>28.36</v>
+      </c>
+      <c r="HP73" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="HQ73" t="n">
+        <v>32.11</v>
+      </c>
+      <c r="HR73" t="n">
+        <v>27.73</v>
+      </c>
+      <c r="HS73" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="HT73" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="HU73" t="n">
+        <v>16.21</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -49932,6 +51465,27 @@
       <c r="HN74" t="n">
         <v>26</v>
       </c>
+      <c r="HO74" t="n">
+        <v>30</v>
+      </c>
+      <c r="HP74" t="n">
+        <v>32</v>
+      </c>
+      <c r="HQ74" t="n">
+        <v>38</v>
+      </c>
+      <c r="HR74" t="n">
+        <v>32</v>
+      </c>
+      <c r="HS74" t="n">
+        <v>30</v>
+      </c>
+      <c r="HT74" t="n">
+        <v>38</v>
+      </c>
+      <c r="HU74" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -50602,6 +52156,27 @@
       <c r="HN75" t="n">
         <v>42</v>
       </c>
+      <c r="HO75" t="n">
+        <v>50</v>
+      </c>
+      <c r="HP75" t="n">
+        <v>50</v>
+      </c>
+      <c r="HQ75" t="n">
+        <v>44</v>
+      </c>
+      <c r="HR75" t="n">
+        <v>42</v>
+      </c>
+      <c r="HS75" t="n">
+        <v>36</v>
+      </c>
+      <c r="HT75" t="n">
+        <v>35</v>
+      </c>
+      <c r="HU75" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51272,6 +52847,27 @@
       <c r="HN76" t="n">
         <v>44</v>
       </c>
+      <c r="HO76" t="n">
+        <v>56</v>
+      </c>
+      <c r="HP76" t="n">
+        <v>35</v>
+      </c>
+      <c r="HQ76" t="n">
+        <v>35</v>
+      </c>
+      <c r="HR76" t="n">
+        <v>34</v>
+      </c>
+      <c r="HS76" t="n">
+        <v>45</v>
+      </c>
+      <c r="HT76" t="n">
+        <v>40</v>
+      </c>
+      <c r="HU76" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -51942,6 +53538,27 @@
       <c r="HN77" t="n">
         <v>29</v>
       </c>
+      <c r="HO77" t="n">
+        <v>24</v>
+      </c>
+      <c r="HP77" t="n">
+        <v>45</v>
+      </c>
+      <c r="HQ77" t="n">
+        <v>38</v>
+      </c>
+      <c r="HR77" t="n">
+        <v>40</v>
+      </c>
+      <c r="HS77" t="n">
+        <v>34</v>
+      </c>
+      <c r="HT77" t="n">
+        <v>45</v>
+      </c>
+      <c r="HU77" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -52612,6 +54229,27 @@
       <c r="HN78" t="n">
         <v>2.42</v>
       </c>
+      <c r="HO78" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="HP78" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="HQ78" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="HR78" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="HS78" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="HT78" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="HU78" t="n">
+        <v>2.11</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53282,6 +54920,27 @@
       <c r="HN79" t="n">
         <v>7.25</v>
       </c>
+      <c r="HO79" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="HP79" t="n">
+        <v>5</v>
+      </c>
+      <c r="HQ79" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="HR79" t="n">
+        <v>10</v>
+      </c>
+      <c r="HS79" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="HT79" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="HU79" t="n">
+        <v>6.67</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -53952,6 +55611,27 @@
       <c r="HN80" t="n">
         <v>31</v>
       </c>
+      <c r="HO80" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="HP80" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="HQ80" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="HR80" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="HS80" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="HT80" t="n">
+        <v>40</v>
+      </c>
+      <c r="HU80" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -54622,6 +56302,27 @@
       <c r="HN81" t="n">
         <v>13.8</v>
       </c>
+      <c r="HO81" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="HP81" t="n">
+        <v>20</v>
+      </c>
+      <c r="HQ81" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="HR81" t="n">
+        <v>10</v>
+      </c>
+      <c r="HS81" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="HT81" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="HU81" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -55292,6 +56993,27 @@
       <c r="HN82" t="n">
         <v>188.3</v>
       </c>
+      <c r="HO82" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="HP82" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="HQ82" t="n">
+        <v>188</v>
+      </c>
+      <c r="HR82" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="HS82" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="HT82" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="HU82" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -55962,6 +57684,27 @@
       <c r="HN83" t="n">
         <v>86.3</v>
       </c>
+      <c r="HO83" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="HP83" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="HQ83" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="HR83" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="HS83" t="n">
+        <v>86</v>
+      </c>
+      <c r="HT83" t="n">
+        <v>88</v>
+      </c>
+      <c r="HU83" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -56632,6 +58375,27 @@
       <c r="HN84" t="n">
         <v>23.24</v>
       </c>
+      <c r="HO84" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="HP84" t="n">
+        <v>11</v>
+      </c>
+      <c r="HQ84" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HR84" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="HS84" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="HT84" t="n">
+        <v>26</v>
+      </c>
+      <c r="HU84" t="n">
+        <v>25.24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -57302,6 +59066,27 @@
       <c r="HN85" t="n">
         <v>57.5</v>
       </c>
+      <c r="HO85" t="n">
+        <v>76</v>
+      </c>
+      <c r="HP85" t="n">
+        <v>113.1</v>
+      </c>
+      <c r="HQ85" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="HR85" t="n">
+        <v>119.7</v>
+      </c>
+      <c r="HS85" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="HT85" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="HU85" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -57972,6 +59757,27 @@
       <c r="HN86" t="n">
         <v>11</v>
       </c>
+      <c r="HO86" t="n">
+        <v>9</v>
+      </c>
+      <c r="HP86" t="n">
+        <v>6</v>
+      </c>
+      <c r="HQ86" t="n">
+        <v>7</v>
+      </c>
+      <c r="HR86" t="n">
+        <v>7</v>
+      </c>
+      <c r="HS86" t="n">
+        <v>10</v>
+      </c>
+      <c r="HT86" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -58642,6 +60448,27 @@
       <c r="HN87" t="n">
         <v>6</v>
       </c>
+      <c r="HO87" t="n">
+        <v>5</v>
+      </c>
+      <c r="HP87" t="n">
+        <v>5</v>
+      </c>
+      <c r="HQ87" t="n">
+        <v>8</v>
+      </c>
+      <c r="HR87" t="n">
+        <v>5</v>
+      </c>
+      <c r="HS87" t="n">
+        <v>2</v>
+      </c>
+      <c r="HT87" t="n">
+        <v>7</v>
+      </c>
+      <c r="HU87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -59312,6 +61139,27 @@
       <c r="HN88" t="n">
         <v>4</v>
       </c>
+      <c r="HO88" t="n">
+        <v>6</v>
+      </c>
+      <c r="HP88" t="n">
+        <v>3</v>
+      </c>
+      <c r="HQ88" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR88" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS88" t="n">
+        <v>2</v>
+      </c>
+      <c r="HT88" t="n">
+        <v>6</v>
+      </c>
+      <c r="HU88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -59982,6 +61830,27 @@
       <c r="HN89" t="n">
         <v>1</v>
       </c>
+      <c r="HO89" t="n">
+        <v>2</v>
+      </c>
+      <c r="HP89" t="n">
+        <v>8</v>
+      </c>
+      <c r="HQ89" t="n">
+        <v>4</v>
+      </c>
+      <c r="HR89" t="n">
+        <v>9</v>
+      </c>
+      <c r="HS89" t="n">
+        <v>8</v>
+      </c>
+      <c r="HT89" t="n">
+        <v>6</v>
+      </c>
+      <c r="HU89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -60652,6 +62521,27 @@
       <c r="HN90" t="n">
         <v>108</v>
       </c>
+      <c r="HO90" t="n">
+        <v>96</v>
+      </c>
+      <c r="HP90" t="n">
+        <v>132</v>
+      </c>
+      <c r="HQ90" t="n">
+        <v>112</v>
+      </c>
+      <c r="HR90" t="n">
+        <v>116</v>
+      </c>
+      <c r="HS90" t="n">
+        <v>127</v>
+      </c>
+      <c r="HT90" t="n">
+        <v>121</v>
+      </c>
+      <c r="HU90" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -61322,6 +63212,27 @@
       <c r="HN91" t="n">
         <v>151</v>
       </c>
+      <c r="HO91" t="n">
+        <v>205</v>
+      </c>
+      <c r="HP91" t="n">
+        <v>192</v>
+      </c>
+      <c r="HQ91" t="n">
+        <v>179</v>
+      </c>
+      <c r="HR91" t="n">
+        <v>191</v>
+      </c>
+      <c r="HS91" t="n">
+        <v>190</v>
+      </c>
+      <c r="HT91" t="n">
+        <v>146</v>
+      </c>
+      <c r="HU91" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -61992,6 +63903,27 @@
       <c r="HN92" t="n">
         <v>173</v>
       </c>
+      <c r="HO92" t="n">
+        <v>239</v>
+      </c>
+      <c r="HP92" t="n">
+        <v>219</v>
+      </c>
+      <c r="HQ92" t="n">
+        <v>219</v>
+      </c>
+      <c r="HR92" t="n">
+        <v>218</v>
+      </c>
+      <c r="HS92" t="n">
+        <v>238</v>
+      </c>
+      <c r="HT92" t="n">
+        <v>174</v>
+      </c>
+      <c r="HU92" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -62662,6 +64594,27 @@
       <c r="HN93" t="n">
         <v>67.09999999999999</v>
       </c>
+      <c r="HO93" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="HP93" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="HQ93" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="HR93" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="HS93" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="HT93" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="HU93" t="n">
+        <v>69.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -63332,6 +65285,27 @@
       <c r="HN94" t="n">
         <v>42</v>
       </c>
+      <c r="HO94" t="n">
+        <v>50</v>
+      </c>
+      <c r="HP94" t="n">
+        <v>50</v>
+      </c>
+      <c r="HQ94" t="n">
+        <v>44</v>
+      </c>
+      <c r="HR94" t="n">
+        <v>42</v>
+      </c>
+      <c r="HS94" t="n">
+        <v>36</v>
+      </c>
+      <c r="HT94" t="n">
+        <v>35</v>
+      </c>
+      <c r="HU94" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -64002,6 +65976,27 @@
       <c r="HN95" t="n">
         <v>11</v>
       </c>
+      <c r="HO95" t="n">
+        <v>10</v>
+      </c>
+      <c r="HP95" t="n">
+        <v>2</v>
+      </c>
+      <c r="HQ95" t="n">
+        <v>10</v>
+      </c>
+      <c r="HR95" t="n">
+        <v>15</v>
+      </c>
+      <c r="HS95" t="n">
+        <v>15</v>
+      </c>
+      <c r="HT95" t="n">
+        <v>9</v>
+      </c>
+      <c r="HU95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -64672,6 +66667,27 @@
       <c r="HN96" t="n">
         <v>1</v>
       </c>
+      <c r="HO96" t="n">
+        <v>8</v>
+      </c>
+      <c r="HP96" t="n">
+        <v>8</v>
+      </c>
+      <c r="HQ96" t="n">
+        <v>10</v>
+      </c>
+      <c r="HR96" t="n">
+        <v>7</v>
+      </c>
+      <c r="HS96" t="n">
+        <v>5</v>
+      </c>
+      <c r="HT96" t="n">
+        <v>7</v>
+      </c>
+      <c r="HU96" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -65342,6 +67358,27 @@
       <c r="HN97" t="n">
         <v>26</v>
       </c>
+      <c r="HO97" t="n">
+        <v>30</v>
+      </c>
+      <c r="HP97" t="n">
+        <v>32</v>
+      </c>
+      <c r="HQ97" t="n">
+        <v>38</v>
+      </c>
+      <c r="HR97" t="n">
+        <v>32</v>
+      </c>
+      <c r="HS97" t="n">
+        <v>30</v>
+      </c>
+      <c r="HT97" t="n">
+        <v>38</v>
+      </c>
+      <c r="HU97" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -66012,6 +68049,27 @@
       <c r="HN98" t="n">
         <v>44</v>
       </c>
+      <c r="HO98" t="n">
+        <v>56</v>
+      </c>
+      <c r="HP98" t="n">
+        <v>35</v>
+      </c>
+      <c r="HQ98" t="n">
+        <v>35</v>
+      </c>
+      <c r="HR98" t="n">
+        <v>34</v>
+      </c>
+      <c r="HS98" t="n">
+        <v>45</v>
+      </c>
+      <c r="HT98" t="n">
+        <v>40</v>
+      </c>
+      <c r="HU98" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -66682,6 +68740,27 @@
       <c r="HN99" t="n">
         <v>40</v>
       </c>
+      <c r="HO99" t="n">
+        <v>42</v>
+      </c>
+      <c r="HP99" t="n">
+        <v>59</v>
+      </c>
+      <c r="HQ99" t="n">
+        <v>53</v>
+      </c>
+      <c r="HR99" t="n">
+        <v>36</v>
+      </c>
+      <c r="HS99" t="n">
+        <v>41</v>
+      </c>
+      <c r="HT99" t="n">
+        <v>49</v>
+      </c>
+      <c r="HU99" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -67352,6 +69431,27 @@
       <c r="HN100" t="n">
         <v>5</v>
       </c>
+      <c r="HO100" t="n">
+        <v>8</v>
+      </c>
+      <c r="HP100" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ100" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR100" t="n">
+        <v>5</v>
+      </c>
+      <c r="HS100" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT100" t="n">
+        <v>2</v>
+      </c>
+      <c r="HU100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -68022,6 +70122,27 @@
       <c r="HN101" t="n">
         <v>3</v>
       </c>
+      <c r="HO101" t="n">
+        <v>7</v>
+      </c>
+      <c r="HP101" t="n">
+        <v>6</v>
+      </c>
+      <c r="HQ101" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR101" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS101" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT101" t="n">
+        <v>5</v>
+      </c>
+      <c r="HU101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -68692,8 +70813,29 @@
       <c r="HN102" t="n">
         <v>75</v>
       </c>
+      <c r="HO102" t="n">
+        <v>70</v>
+      </c>
+      <c r="HP102" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HQ102" t="n">
+        <v>75</v>
+      </c>
+      <c r="HR102" t="n">
+        <v>100</v>
+      </c>
+      <c r="HS102" t="n">
+        <v>25</v>
+      </c>
+      <c r="HT102" t="n">
+        <v>50</v>
+      </c>
+      <c r="HU102" t="n">
+        <v>83.3</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Richmond_stats.xlsx
+++ b/Richmond_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HU102"/>
+  <dimension ref="A1:HW102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1043,6 +1043,12 @@
       <c r="HU1" t="n">
         <v>10322</v>
       </c>
+      <c r="HV1" t="n">
+        <v>10324</v>
+      </c>
+      <c r="HW1" t="n">
+        <v>10326</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1734,6 +1740,12 @@
       <c r="HU2" t="n">
         <v>2020</v>
       </c>
+      <c r="HV2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2425,6 +2437,12 @@
       <c r="HU3" t="n">
         <v>26</v>
       </c>
+      <c r="HV3" t="n">
+        <v>27</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3116,6 +3134,12 @@
       <c r="HU4" t="n">
         <v>0</v>
       </c>
+      <c r="HV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3807,6 +3831,12 @@
       <c r="HU5" t="n">
         <v>0</v>
       </c>
+      <c r="HV5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4498,6 +4528,12 @@
       <c r="HU6" t="n">
         <v>80</v>
       </c>
+      <c r="HV6" t="n">
+        <v>46</v>
+      </c>
+      <c r="HW6" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5189,6 +5225,12 @@
       <c r="HU7" t="n">
         <v>49</v>
       </c>
+      <c r="HV7" t="n">
+        <v>40</v>
+      </c>
+      <c r="HW7" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5880,6 +5922,12 @@
       <c r="HU8" t="n">
         <v>31</v>
       </c>
+      <c r="HV8" t="n">
+        <v>6</v>
+      </c>
+      <c r="HW8" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6571,6 +6619,12 @@
       <c r="HU9" t="n">
         <v>1</v>
       </c>
+      <c r="HV9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7262,6 +7316,12 @@
       <c r="HU10" t="n">
         <v>15</v>
       </c>
+      <c r="HV10" t="n">
+        <v>13</v>
+      </c>
+      <c r="HW10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7953,6 +8013,12 @@
       <c r="HU11" t="n">
         <v>184</v>
       </c>
+      <c r="HV11" t="n">
+        <v>177</v>
+      </c>
+      <c r="HW11" t="n">
+        <v>174</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8644,6 +8710,12 @@
       <c r="HU12" t="n">
         <v>145</v>
       </c>
+      <c r="HV12" t="n">
+        <v>91</v>
+      </c>
+      <c r="HW12" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9335,6 +9407,12 @@
       <c r="HU13" t="n">
         <v>329</v>
       </c>
+      <c r="HV13" t="n">
+        <v>268</v>
+      </c>
+      <c r="HW13" t="n">
+        <v>278</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10026,6 +10104,12 @@
       <c r="HU14" t="n">
         <v>1.27</v>
       </c>
+      <c r="HV14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="HW14" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10717,6 +10801,12 @@
       <c r="HU15" t="n">
         <v>72</v>
       </c>
+      <c r="HV15" t="n">
+        <v>32</v>
+      </c>
+      <c r="HW15" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11408,6 +11498,12 @@
       <c r="HU16" t="n">
         <v>48</v>
       </c>
+      <c r="HV16" t="n">
+        <v>66</v>
+      </c>
+      <c r="HW16" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12099,6 +12195,12 @@
       <c r="HU17" t="n">
         <v>16</v>
       </c>
+      <c r="HV17" t="n">
+        <v>23</v>
+      </c>
+      <c r="HW17" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12790,6 +12892,12 @@
       <c r="HU18" t="n">
         <v>19</v>
       </c>
+      <c r="HV18" t="n">
+        <v>19</v>
+      </c>
+      <c r="HW18" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13481,6 +13589,12 @@
       <c r="HU19" t="n">
         <v>15</v>
       </c>
+      <c r="HV19" t="n">
+        <v>24</v>
+      </c>
+      <c r="HW19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14172,6 +14286,12 @@
       <c r="HU20" t="n">
         <v>12</v>
       </c>
+      <c r="HV20" t="n">
+        <v>6</v>
+      </c>
+      <c r="HW20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14863,6 +14983,12 @@
       <c r="HU21" t="n">
         <v>8</v>
       </c>
+      <c r="HV21" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15554,6 +15680,12 @@
       <c r="HU22" t="n">
         <v>6</v>
       </c>
+      <c r="HV22" t="n">
+        <v>7</v>
+      </c>
+      <c r="HW22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16245,6 +16377,12 @@
       <c r="HU23" t="n">
         <v>2</v>
       </c>
+      <c r="HV23" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16936,6 +17074,12 @@
       <c r="HU24" t="n">
         <v>20</v>
       </c>
+      <c r="HV24" t="n">
+        <v>16</v>
+      </c>
+      <c r="HW24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17627,6 +17771,12 @@
       <c r="HU25" t="n">
         <v>60</v>
       </c>
+      <c r="HV25" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="HW25" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18318,6 +18468,12 @@
       <c r="HU26" t="n">
         <v>27.42</v>
       </c>
+      <c r="HV26" t="n">
+        <v>44.67</v>
+      </c>
+      <c r="HW26" t="n">
+        <v>23.17</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19009,6 +19165,12 @@
       <c r="HU27" t="n">
         <v>16.45</v>
       </c>
+      <c r="HV27" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="HW27" t="n">
+        <v>13.24</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19700,6 +19862,12 @@
       <c r="HU28" t="n">
         <v>29</v>
       </c>
+      <c r="HV28" t="n">
+        <v>41</v>
+      </c>
+      <c r="HW28" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20391,6 +20559,12 @@
       <c r="HU29" t="n">
         <v>51</v>
       </c>
+      <c r="HV29" t="n">
+        <v>73</v>
+      </c>
+      <c r="HW29" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21082,6 +21256,12 @@
       <c r="HU30" t="n">
         <v>34</v>
       </c>
+      <c r="HV30" t="n">
+        <v>50</v>
+      </c>
+      <c r="HW30" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21773,6 +21953,12 @@
       <c r="HU31" t="n">
         <v>52</v>
       </c>
+      <c r="HV31" t="n">
+        <v>44</v>
+      </c>
+      <c r="HW31" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22464,6 +22650,12 @@
       <c r="HU32" t="n">
         <v>2.6</v>
       </c>
+      <c r="HV32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="HW32" t="n">
+        <v>2.33</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23155,6 +23347,12 @@
       <c r="HU33" t="n">
         <v>4.33</v>
       </c>
+      <c r="HV33" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="HW33" t="n">
+        <v>4.08</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23846,6 +24044,12 @@
       <c r="HU34" t="n">
         <v>34.6</v>
       </c>
+      <c r="HV34" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="HW34" t="n">
+        <v>36.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24537,6 +24741,12 @@
       <c r="HU35" t="n">
         <v>23.1</v>
       </c>
+      <c r="HV35" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="HW35" t="n">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25228,6 +25438,12 @@
       <c r="HU36" t="n">
         <v>185.5</v>
       </c>
+      <c r="HV36" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="HW36" t="n">
+        <v>185.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25919,6 +26135,12 @@
       <c r="HU37" t="n">
         <v>86.2</v>
       </c>
+      <c r="HV37" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="HW37" t="n">
+        <v>86.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26610,6 +26832,12 @@
       <c r="HU38" t="n">
         <v>27.8</v>
       </c>
+      <c r="HV38" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="HW38" t="n">
+        <v>27.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27301,6 +27529,12 @@
       <c r="HU39" t="n">
         <v>131</v>
       </c>
+      <c r="HV39" t="n">
+        <v>132</v>
+      </c>
+      <c r="HW39" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27992,6 +28226,12 @@
       <c r="HU40" t="n">
         <v>4</v>
       </c>
+      <c r="HV40" t="n">
+        <v>4</v>
+      </c>
+      <c r="HW40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28683,6 +28923,12 @@
       <c r="HU41" t="n">
         <v>6</v>
       </c>
+      <c r="HV41" t="n">
+        <v>6</v>
+      </c>
+      <c r="HW41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29374,6 +29620,12 @@
       <c r="HU42" t="n">
         <v>3</v>
       </c>
+      <c r="HV42" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30065,6 +30317,12 @@
       <c r="HU43" t="n">
         <v>9</v>
       </c>
+      <c r="HV43" t="n">
+        <v>9</v>
+      </c>
+      <c r="HW43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30756,6 +31014,12 @@
       <c r="HU44" t="n">
         <v>123</v>
       </c>
+      <c r="HV44" t="n">
+        <v>134</v>
+      </c>
+      <c r="HW44" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31447,6 +31711,12 @@
       <c r="HU45" t="n">
         <v>203</v>
       </c>
+      <c r="HV45" t="n">
+        <v>114</v>
+      </c>
+      <c r="HW45" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32138,6 +32408,12 @@
       <c r="HU46" t="n">
         <v>243</v>
       </c>
+      <c r="HV46" t="n">
+        <v>156</v>
+      </c>
+      <c r="HW46" t="n">
+        <v>173</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32829,6 +33105,12 @@
       <c r="HU47" t="n">
         <v>73.90000000000001</v>
       </c>
+      <c r="HV47" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="HW47" t="n">
+        <v>62.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33520,6 +33802,12 @@
       <c r="HU48" t="n">
         <v>51</v>
       </c>
+      <c r="HV48" t="n">
+        <v>73</v>
+      </c>
+      <c r="HW48" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34211,6 +34499,12 @@
       <c r="HU49" t="n">
         <v>9</v>
       </c>
+      <c r="HV49" t="n">
+        <v>9</v>
+      </c>
+      <c r="HW49" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34902,6 +35196,12 @@
       <c r="HU50" t="n">
         <v>8</v>
       </c>
+      <c r="HV50" t="n">
+        <v>6</v>
+      </c>
+      <c r="HW50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35593,6 +35893,12 @@
       <c r="HU51" t="n">
         <v>29</v>
       </c>
+      <c r="HV51" t="n">
+        <v>41</v>
+      </c>
+      <c r="HW51" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36284,6 +36590,12 @@
       <c r="HU52" t="n">
         <v>34</v>
       </c>
+      <c r="HV52" t="n">
+        <v>50</v>
+      </c>
+      <c r="HW52" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36975,6 +37287,12 @@
       <c r="HU53" t="n">
         <v>50</v>
       </c>
+      <c r="HV53" t="n">
+        <v>47</v>
+      </c>
+      <c r="HW53" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37666,6 +37984,12 @@
       <c r="HU54" t="n">
         <v>2</v>
       </c>
+      <c r="HV54" t="n">
+        <v>2</v>
+      </c>
+      <c r="HW54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38357,6 +38681,12 @@
       <c r="HU55" t="n">
         <v>8</v>
       </c>
+      <c r="HV55" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39048,6 +39378,12 @@
       <c r="HU56" t="n">
         <v>66.7</v>
       </c>
+      <c r="HV56" t="n">
+        <v>50</v>
+      </c>
+      <c r="HW56" t="n">
+        <v>83.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39739,6 +40075,12 @@
       <c r="HU57" t="n">
         <v>177</v>
       </c>
+      <c r="HV57" t="n">
+        <v>190</v>
+      </c>
+      <c r="HW57" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40430,6 +40772,12 @@
       <c r="HU58" t="n">
         <v>131</v>
       </c>
+      <c r="HV58" t="n">
+        <v>110</v>
+      </c>
+      <c r="HW58" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41121,6 +41469,12 @@
       <c r="HU59" t="n">
         <v>308</v>
       </c>
+      <c r="HV59" t="n">
+        <v>300</v>
+      </c>
+      <c r="HW59" t="n">
+        <v>274</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41812,6 +42166,12 @@
       <c r="HU60" t="n">
         <v>1.35</v>
       </c>
+      <c r="HV60" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="HW60" t="n">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42503,6 +42863,12 @@
       <c r="HU61" t="n">
         <v>77</v>
       </c>
+      <c r="HV61" t="n">
+        <v>42</v>
+      </c>
+      <c r="HW61" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43194,6 +43560,12 @@
       <c r="HU62" t="n">
         <v>38</v>
       </c>
+      <c r="HV62" t="n">
+        <v>62</v>
+      </c>
+      <c r="HW62" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43885,6 +44257,12 @@
       <c r="HU63" t="n">
         <v>26</v>
       </c>
+      <c r="HV63" t="n">
+        <v>45</v>
+      </c>
+      <c r="HW63" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44576,6 +44954,12 @@
       <c r="HU64" t="n">
         <v>15</v>
       </c>
+      <c r="HV64" t="n">
+        <v>24</v>
+      </c>
+      <c r="HW64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45267,6 +45651,12 @@
       <c r="HU65" t="n">
         <v>19</v>
       </c>
+      <c r="HV65" t="n">
+        <v>19</v>
+      </c>
+      <c r="HW65" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45958,6 +46348,12 @@
       <c r="HU66" t="n">
         <v>6</v>
       </c>
+      <c r="HV66" t="n">
+        <v>6</v>
+      </c>
+      <c r="HW66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46649,6 +47045,12 @@
       <c r="HU67" t="n">
         <v>5</v>
       </c>
+      <c r="HV67" t="n">
+        <v>4</v>
+      </c>
+      <c r="HW67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47340,6 +47742,12 @@
       <c r="HU68" t="n">
         <v>9</v>
       </c>
+      <c r="HV68" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48031,6 +48439,12 @@
       <c r="HU69" t="n">
         <v>4</v>
       </c>
+      <c r="HV69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48722,6 +49136,12 @@
       <c r="HU70" t="n">
         <v>19</v>
       </c>
+      <c r="HV70" t="n">
+        <v>10</v>
+      </c>
+      <c r="HW70" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -49413,6 +49833,12 @@
       <c r="HU71" t="n">
         <v>31.6</v>
       </c>
+      <c r="HV71" t="n">
+        <v>60</v>
+      </c>
+      <c r="HW71" t="n">
+        <v>46.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50104,6 +50530,12 @@
       <c r="HU72" t="n">
         <v>51.33</v>
       </c>
+      <c r="HV72" t="n">
+        <v>50</v>
+      </c>
+      <c r="HW72" t="n">
+        <v>39.14</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -50795,6 +51227,12 @@
       <c r="HU73" t="n">
         <v>16.21</v>
       </c>
+      <c r="HV73" t="n">
+        <v>30</v>
+      </c>
+      <c r="HW73" t="n">
+        <v>18.27</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51486,6 +51924,12 @@
       <c r="HU74" t="n">
         <v>26</v>
       </c>
+      <c r="HV74" t="n">
+        <v>29</v>
+      </c>
+      <c r="HW74" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -52177,6 +52621,12 @@
       <c r="HU75" t="n">
         <v>46</v>
       </c>
+      <c r="HV75" t="n">
+        <v>59</v>
+      </c>
+      <c r="HW75" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52868,6 +53318,12 @@
       <c r="HU76" t="n">
         <v>38</v>
       </c>
+      <c r="HV76" t="n">
+        <v>38</v>
+      </c>
+      <c r="HW76" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -53559,6 +54015,12 @@
       <c r="HU77" t="n">
         <v>40</v>
       </c>
+      <c r="HV77" t="n">
+        <v>58</v>
+      </c>
+      <c r="HW77" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54250,6 +54712,12 @@
       <c r="HU78" t="n">
         <v>2.11</v>
       </c>
+      <c r="HV78" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="HW78" t="n">
+        <v>2.67</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -54941,6 +55409,12 @@
       <c r="HU79" t="n">
         <v>6.67</v>
       </c>
+      <c r="HV79" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="HW79" t="n">
+        <v>5.71</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -55632,6 +56106,12 @@
       <c r="HU80" t="n">
         <v>37.5</v>
       </c>
+      <c r="HV80" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="HW80" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -56323,6 +56803,12 @@
       <c r="HU81" t="n">
         <v>15</v>
       </c>
+      <c r="HV81" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="HW81" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57014,6 +57500,12 @@
       <c r="HU82" t="n">
         <v>187.4</v>
       </c>
+      <c r="HV82" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="HW82" t="n">
+        <v>188.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -57705,6 +58197,12 @@
       <c r="HU83" t="n">
         <v>85</v>
       </c>
+      <c r="HV83" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="HW83" t="n">
+        <v>89.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -58396,6 +58894,12 @@
       <c r="HU84" t="n">
         <v>25.24</v>
       </c>
+      <c r="HV84" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="HW84" t="n">
+        <v>28.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -59087,6 +59591,12 @@
       <c r="HU85" t="n">
         <v>92</v>
       </c>
+      <c r="HV85" t="n">
+        <v>123.6</v>
+      </c>
+      <c r="HW85" t="n">
+        <v>162.9</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -59778,6 +60288,12 @@
       <c r="HU86" t="n">
         <v>7</v>
       </c>
+      <c r="HV86" t="n">
+        <v>5</v>
+      </c>
+      <c r="HW86" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -60469,6 +60985,12 @@
       <c r="HU87" t="n">
         <v>7</v>
       </c>
+      <c r="HV87" t="n">
+        <v>5</v>
+      </c>
+      <c r="HW87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -61160,6 +61682,12 @@
       <c r="HU88" t="n">
         <v>4</v>
       </c>
+      <c r="HV88" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -61851,6 +62379,12 @@
       <c r="HU89" t="n">
         <v>4</v>
       </c>
+      <c r="HV89" t="n">
+        <v>9</v>
+      </c>
+      <c r="HW89" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -62542,6 +63076,12 @@
       <c r="HU90" t="n">
         <v>117</v>
       </c>
+      <c r="HV90" t="n">
+        <v>139</v>
+      </c>
+      <c r="HW90" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -63233,6 +63773,12 @@
       <c r="HU91" t="n">
         <v>186</v>
       </c>
+      <c r="HV91" t="n">
+        <v>147</v>
+      </c>
+      <c r="HW91" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -63924,6 +64470,12 @@
       <c r="HU92" t="n">
         <v>214</v>
       </c>
+      <c r="HV92" t="n">
+        <v>197</v>
+      </c>
+      <c r="HW92" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -64615,6 +65167,12 @@
       <c r="HU93" t="n">
         <v>69.5</v>
       </c>
+      <c r="HV93" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="HW93" t="n">
+        <v>61.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -65306,6 +65864,12 @@
       <c r="HU94" t="n">
         <v>46</v>
       </c>
+      <c r="HV94" t="n">
+        <v>59</v>
+      </c>
+      <c r="HW94" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -65997,6 +66561,12 @@
       <c r="HU95" t="n">
         <v>8</v>
       </c>
+      <c r="HV95" t="n">
+        <v>8</v>
+      </c>
+      <c r="HW95" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -66688,6 +67258,12 @@
       <c r="HU96" t="n">
         <v>7</v>
       </c>
+      <c r="HV96" t="n">
+        <v>5</v>
+      </c>
+      <c r="HW96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -67379,6 +67955,12 @@
       <c r="HU97" t="n">
         <v>26</v>
       </c>
+      <c r="HV97" t="n">
+        <v>29</v>
+      </c>
+      <c r="HW97" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -68070,6 +68652,12 @@
       <c r="HU98" t="n">
         <v>38</v>
       </c>
+      <c r="HV98" t="n">
+        <v>38</v>
+      </c>
+      <c r="HW98" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -68761,6 +69349,12 @@
       <c r="HU99" t="n">
         <v>32</v>
       </c>
+      <c r="HV99" t="n">
+        <v>43</v>
+      </c>
+      <c r="HW99" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -69452,6 +70046,12 @@
       <c r="HU100" t="n">
         <v>2</v>
       </c>
+      <c r="HV100" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -70143,6 +70743,12 @@
       <c r="HU101" t="n">
         <v>5</v>
       </c>
+      <c r="HV101" t="n">
+        <v>4</v>
+      </c>
+      <c r="HW101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -70834,8 +71440,14 @@
       <c r="HU102" t="n">
         <v>83.3</v>
       </c>
+      <c r="HV102" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HW102" t="n">
+        <v>85.7</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>